--- a/Tabulados/td-entidad.xlsx
+++ b/Tabulados/td-entidad.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="PEA" sheetId="1" r:id="rId1"/>
+    <sheet name="tasa_desocupación" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -175,9 +175,6 @@
     <t>IV Trim 2020</t>
   </si>
   <si>
-    <t>Nota: La información del primer trimestre de 2005, y hasta el primer trimestre de 2020, proviene de la Encuesta Nacional de Ocupación y Empleo (ENOE); a partir del tercer trimestre de 2020, la información procede de la Encuesta Nacional de Ocupación y Empleo, Nueva edición (ENOEN).</t>
-  </si>
-  <si>
     <t>Tasa de desocupación por entidad federativa</t>
   </si>
   <si>
@@ -185,6 +182,18 @@
   </si>
   <si>
     <t>2008 -2021</t>
+  </si>
+  <si>
+    <t>II Trim 2021</t>
+  </si>
+  <si>
+    <t>Notas:</t>
+  </si>
+  <si>
+    <t>La información del primer trimestre de 2005, y hasta el primer trimestre de 2020, proviene de la Encuesta Nacional de Ocupación y Empleo (ENOE); a partir del tercer trimestre de 2020, la información procede de la Encuesta Nacional de Ocupación y Empleo, Nueva edición (ENOEN).</t>
+  </si>
+  <si>
+    <t>En cumplimiento a lo ordenado por el Ministro instructor de la Suprema Corte de Justicia de la Nación en el acuerdo de fecha 9 de julio de 2021 dictado en el incidente de suspensión derivado de la Controversia Constitucional 78/2021, las cifras poblacionales correspondientes al Estado de México se construyen aplicando las proyecciones de población empleadas con anterioridad a la concesión de la suspensión.</t>
   </si>
 </sst>
 </file>
@@ -194,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -386,6 +395,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -781,9 +810,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -792,7 +819,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -852,8 +879,9 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -882,7 +910,6 @@
     <xf numFmtId="164" fontId="22" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="21" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -912,8 +939,36 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="28" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="34" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="60">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis1 2" xfId="47"/>
     <cellStyle name="20% - Énfasis2" xfId="2" builtinId="34" customBuiltin="1"/>
@@ -965,6 +1020,7 @@
     <cellStyle name="Normal_INDICA8" xfId="34"/>
     <cellStyle name="Notas" xfId="35" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Notas 2" xfId="46"/>
+    <cellStyle name="Porcentaje" xfId="59" builtinId="5"/>
     <cellStyle name="Salida" xfId="36" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="37" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="38" builtinId="53" customBuiltin="1"/>
@@ -1274,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1295,13 +1351,13 @@
     <col min="12" max="12" width="9.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="3"/>
+    <col min="15" max="16" width="10.28515625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1317,10 +1373,11 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1336,8 +1393,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1353,8 +1411,9 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1397,12 +1456,15 @@
       <c r="N4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="O4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="11">
@@ -1444,12 +1506,15 @@
       <c r="N5" s="9">
         <v>5.2</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="26">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="P5" s="17">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="11">
@@ -1491,12 +1556,15 @@
       <c r="N6" s="9">
         <v>2.9</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="26">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="P6" s="17">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11">
@@ -1538,12 +1606,15 @@
       <c r="N7" s="9">
         <v>5.2</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="26">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="P7" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="11">
@@ -1585,12 +1656,15 @@
       <c r="N8" s="9">
         <v>3.4</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="26">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="P8" s="17">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="11">
@@ -1632,12 +1706,15 @@
       <c r="N9" s="9">
         <v>6.2</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="26">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="P9" s="17">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="11">
@@ -1679,12 +1756,15 @@
       <c r="N10" s="9">
         <v>3.8</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="26">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="P10" s="17">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="11">
@@ -1726,12 +1806,15 @@
       <c r="N11" s="9">
         <v>2.8</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="26">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="P11" s="17">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="11">
@@ -1773,12 +1856,15 @@
       <c r="N12" s="9">
         <v>3.7</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="26">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="P12" s="17">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="11">
@@ -1820,12 +1906,15 @@
       <c r="N13" s="9">
         <v>6.6</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="26">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="P13" s="17">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="11">
@@ -1867,12 +1956,15 @@
       <c r="N14" s="9">
         <v>4.8</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="26">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="P14" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="11">
@@ -1914,12 +2006,15 @@
       <c r="N15" s="9">
         <v>5.3</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="26">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="P15" s="17">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="11">
@@ -1961,12 +2056,15 @@
       <c r="N16" s="9">
         <v>2.4</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="26">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="P16" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="11">
@@ -2008,59 +2106,65 @@
       <c r="N17" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="26">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="P17" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>4</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>5.8</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>5.3</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>5.4</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="14">
         <v>4.3</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="14">
         <v>3.3</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="14">
         <v>2.9</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="14">
         <v>2.5</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="14">
         <v>3.2</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="27">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="P18" s="18">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="11">
@@ -2102,12 +2206,15 @@
       <c r="N19" s="9">
         <v>6.5</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="26">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="P19" s="17">
+        <v>6.2183999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="11">
@@ -2149,12 +2256,15 @@
       <c r="N20" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="26">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="P20" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="11">
@@ -2196,12 +2306,15 @@
       <c r="N21" s="9">
         <v>2.5</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="P21" s="17">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="11">
@@ -2243,12 +2356,15 @@
       <c r="N22" s="9">
         <v>4</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="26">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="P22" s="17">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="11">
@@ -2290,12 +2406,15 @@
       <c r="N23" s="9">
         <v>4.3</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="26">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="P23" s="17">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="11">
@@ -2337,12 +2456,15 @@
       <c r="N24" s="9">
         <v>1.7</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="26">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="P24" s="17">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="11">
@@ -2384,12 +2506,15 @@
       <c r="N25" s="9">
         <v>6.1</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="26">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="P25" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="11">
@@ -2431,12 +2556,15 @@
       <c r="N26" s="9">
         <v>7</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="26">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="P26" s="17">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="11">
@@ -2478,12 +2606,15 @@
       <c r="N27" s="9">
         <v>8.4</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="26">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="P27" s="17">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="11">
@@ -2525,12 +2656,15 @@
       <c r="N28" s="9">
         <v>3.2</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="26">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="P28" s="17">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="11">
@@ -2572,12 +2706,15 @@
       <c r="N29" s="9">
         <v>2.4</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="26">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="P29" s="17">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="11">
@@ -2619,12 +2756,15 @@
       <c r="N30" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="26">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="P30" s="17">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="11">
@@ -2666,12 +2806,15 @@
       <c r="N31" s="9">
         <v>8</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="26">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="P31" s="17">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="11">
@@ -2713,12 +2856,15 @@
       <c r="N32" s="9">
         <v>3.2</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O32" s="26">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="P32" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="11">
@@ -2760,12 +2906,15 @@
       <c r="N33" s="9">
         <v>5.6</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="26">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="P33" s="17">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="11">
@@ -2807,12 +2956,15 @@
       <c r="N34" s="9">
         <v>3.4</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="26">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="P34" s="17">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="11">
@@ -2854,12 +3006,15 @@
       <c r="N35" s="9">
         <v>2.6</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="26">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="P35" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="11">
@@ -2901,126 +3056,152 @@
       <c r="N36" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O36" s="26">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="P36" s="17">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="15">
         <v>4.2</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="16">
         <v>5.2</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="16">
         <v>5.3</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="16">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="16">
         <v>4.2</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="16">
         <v>3.5</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="16">
         <v>3.3</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="16">
         <v>3.3</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="16">
         <v>3.4</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O37" s="20">
+      <c r="O37" s="15">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-    </row>
-    <row r="39" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+      <c r="P37" s="19">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="30" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="36"/>
+    </row>
+    <row r="39" spans="1:18" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+    </row>
+    <row r="40" spans="1:18" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+    </row>
+    <row r="41" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+    </row>
+    <row r="42" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P42" s="20"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3030,7 +3211,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3040,7 +3221,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3050,7 +3231,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3060,7 +3241,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3071,8 +3252,10 @@
       <c r="H47" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A39:O39"/>
+  <mergeCells count="3">
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A40:P40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.79" right="0.79" top="0.98" bottom="0.98" header="0" footer="0"/>

--- a/Tabulados/td-entidad.xlsx
+++ b/Tabulados/td-entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -127,39 +127,6 @@
     </r>
   </si>
   <si>
-    <t>IV Trim 2016</t>
-  </si>
-  <si>
-    <t>IV Trim 2015</t>
-  </si>
-  <si>
-    <t>IV Trim 2017</t>
-  </si>
-  <si>
-    <t>IV Trim 2018</t>
-  </si>
-  <si>
-    <t>IV Trim 2012</t>
-  </si>
-  <si>
-    <t>IV Trim 2008</t>
-  </si>
-  <si>
-    <t>IV Trim 2009</t>
-  </si>
-  <si>
-    <t>IV Trim 2010</t>
-  </si>
-  <si>
-    <t>IV Trim 2011</t>
-  </si>
-  <si>
-    <t>IV Trim 2013</t>
-  </si>
-  <si>
-    <t>IV Trim 2014</t>
-  </si>
-  <si>
     <t>Ciudad de México</t>
   </si>
   <si>
@@ -169,24 +136,12 @@
     <t>Nacional</t>
   </si>
   <si>
-    <t>IV Trim 2019</t>
-  </si>
-  <si>
-    <t>IV Trim 2020</t>
-  </si>
-  <si>
     <t>Tasa de desocupación por entidad federativa</t>
   </si>
   <si>
-    <t>I Trim 2021</t>
-  </si>
-  <si>
     <t>2008 -2021</t>
   </si>
   <si>
-    <t>II Trim 2021</t>
-  </si>
-  <si>
     <t>Notas:</t>
   </si>
   <si>
@@ -194,6 +149,18 @@
   </si>
   <si>
     <t>En cumplimiento a lo ordenado por el Ministro instructor de la Suprema Corte de Justicia de la Nación en el acuerdo de fecha 9 de julio de 2021 dictado en el incidente de suspensión derivado de la Controversia Constitucional 78/2021, las cifras poblacionales correspondientes al Estado de México se construyen aplicando las proyecciones de población empleadas con anterioridad a la concesión de la suspensión.</t>
+  </si>
+  <si>
+    <t>IV Trim</t>
+  </si>
+  <si>
+    <t>I Trim</t>
+  </si>
+  <si>
+    <t>II Trim</t>
+  </si>
+  <si>
+    <t>III Trim</t>
   </si>
 </sst>
 </file>
@@ -639,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -818,6 +785,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -881,7 +901,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -952,20 +972,56 @@
     <xf numFmtId="3" fontId="28" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="28" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="28" fillId="34" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1330,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1347,17 +1403,17 @@
     <col min="8" max="8" width="9.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" style="3" customWidth="1"/>
-    <col min="15" max="16" width="10.28515625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="3"/>
+    <col min="15" max="17" width="10.28515625" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1374,10 +1430,11 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1394,8 +1451,9 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1412,1806 +1470,1950 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="44">
+        <v>2008</v>
+      </c>
+      <c r="C4" s="43">
+        <v>2009</v>
+      </c>
+      <c r="D4" s="43">
+        <v>2010</v>
+      </c>
+      <c r="E4" s="43">
+        <v>2011</v>
+      </c>
+      <c r="F4" s="43">
+        <v>2012</v>
+      </c>
+      <c r="G4" s="43">
+        <v>2013</v>
+      </c>
+      <c r="H4" s="43">
+        <v>2014</v>
+      </c>
+      <c r="I4" s="43">
+        <v>2015</v>
+      </c>
+      <c r="J4" s="43">
+        <v>2016</v>
+      </c>
+      <c r="K4" s="43">
+        <v>2017</v>
+      </c>
+      <c r="L4" s="43">
+        <v>2018</v>
+      </c>
+      <c r="M4" s="43">
+        <v>2019</v>
+      </c>
+      <c r="N4" s="46">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="40">
+        <v>2021</v>
+      </c>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="50"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="C5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="Q5" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B6" s="11">
         <v>5.7</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C6" s="10">
         <v>6.8</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="10">
         <v>6.9</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="10">
         <v>6.3</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F6" s="10">
         <v>6</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G6" s="10">
         <v>5.9</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H6" s="10">
         <v>5.5</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I6" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J6" s="9">
         <v>3.9</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K6" s="9">
         <v>3.7</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L6" s="9">
         <v>3.2</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M6" s="9">
         <v>3.4</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N6" s="9">
         <v>5.2</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O6" s="26">
         <v>3.6</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P6" s="9">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="Q6" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B7" s="11">
         <v>4.3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C7" s="10">
         <v>6.7</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="10">
         <v>5.4</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="10">
         <v>7.1</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <v>5.9</v>
-      </c>
-      <c r="G6" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H6" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="I6" s="9">
-        <v>3.7</v>
-      </c>
-      <c r="J6" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K6" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="L6" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M6" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N6" s="9">
-        <v>2.9</v>
-      </c>
-      <c r="O6" s="26">
-        <v>2.6</v>
-      </c>
-      <c r="P6" s="17">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="11">
-        <v>4.2</v>
-      </c>
-      <c r="C7" s="10">
-        <v>5.6</v>
-      </c>
-      <c r="D7" s="10">
-        <v>5.8</v>
-      </c>
-      <c r="E7" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="F7" s="10">
-        <v>5.6</v>
       </c>
       <c r="G7" s="10">
         <v>5.0999999999999996</v>
       </c>
       <c r="H7" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M7" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N7" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="O7" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="P7" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H8" s="10">
         <v>6</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I8" s="9">
         <v>4.2</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J8" s="9">
         <v>4.2</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K8" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L8" s="9">
         <v>3.7</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M8" s="9">
         <v>3.9</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N8" s="9">
         <v>5.2</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O8" s="26">
         <v>5</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P8" s="9">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="Q8" s="17">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B9" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C9" s="10">
         <v>3.4</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="10">
         <v>2.7</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="10">
         <v>2.7</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="10">
         <v>2.1</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G9" s="10">
         <v>2.1</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H9" s="10">
         <v>2.6</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I9" s="9">
         <v>3</v>
-      </c>
-      <c r="J8" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="K8" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="L8" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="M8" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="N8" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="O8" s="26">
-        <v>2.9</v>
-      </c>
-      <c r="P8" s="17">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="11">
-        <v>5.7</v>
-      </c>
-      <c r="C9" s="10">
-        <v>7.1</v>
-      </c>
-      <c r="D9" s="10">
-        <v>6.9</v>
-      </c>
-      <c r="E9" s="10">
-        <v>5.6</v>
-      </c>
-      <c r="F9" s="10">
-        <v>5.6</v>
-      </c>
-      <c r="G9" s="10">
-        <v>5</v>
-      </c>
-      <c r="H9" s="10">
-        <v>5.3</v>
-      </c>
-      <c r="I9" s="9">
-        <v>4.2</v>
       </c>
       <c r="J9" s="9">
         <v>3.9</v>
       </c>
       <c r="K9" s="9">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L9" s="9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M9" s="9">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="N9" s="9">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="O9" s="26">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P9" s="17">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.9</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B10" s="11">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="C10" s="10">
-        <v>4.2</v>
+        <v>7.1</v>
       </c>
       <c r="D10" s="10">
-        <v>4.4000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="E10" s="10">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="F10" s="10">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="G10" s="10">
         <v>5</v>
       </c>
       <c r="H10" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="I10" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="J10" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="L10" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="M10" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="N10" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="O10" s="26">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P10" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="C11" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E11" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="F11" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="G11" s="10">
         <v>5</v>
       </c>
-      <c r="I10" s="9">
+      <c r="H11" s="10">
+        <v>5</v>
+      </c>
+      <c r="I11" s="9">
         <v>4.3</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J11" s="9">
         <v>3.5</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K11" s="9">
         <v>3.5</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L11" s="9">
         <v>3.7</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M11" s="9">
         <v>2.9</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N11" s="9">
         <v>3.8</v>
-      </c>
-      <c r="O10" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="P10" s="17">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2.9</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2.7</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F11" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="G11" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="H11" s="10">
-        <v>2.9</v>
-      </c>
-      <c r="I11" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="J11" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="K11" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="L11" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="M11" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="N11" s="9">
-        <v>2.8</v>
       </c>
       <c r="O11" s="26">
         <v>3.2</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="Q11" s="17">
         <v>2.9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="H12" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="I12" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="J12" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="L12" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="M12" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="N12" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="O12" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="P12" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B13" s="11">
         <v>6.9</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C13" s="10">
         <v>8.4</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="10">
         <v>5.7</v>
-      </c>
-      <c r="E12" s="10">
-        <v>6</v>
-      </c>
-      <c r="F12" s="10">
-        <v>5.8</v>
-      </c>
-      <c r="G12" s="10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H12" s="10">
-        <v>4.3</v>
-      </c>
-      <c r="I12" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="J12" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="K12" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="L12" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M12" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="N12" s="9">
-        <v>3.7</v>
-      </c>
-      <c r="O12" s="26">
-        <v>4</v>
-      </c>
-      <c r="P12" s="17">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="11">
-        <v>5.7</v>
-      </c>
-      <c r="C13" s="10">
-        <v>6.4</v>
-      </c>
-      <c r="D13" s="10">
-        <v>6.6</v>
       </c>
       <c r="E13" s="10">
         <v>6</v>
       </c>
       <c r="F13" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="G13" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H13" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="I13" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="J13" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="L13" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M13" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="N13" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="O13" s="26">
+        <v>4</v>
+      </c>
+      <c r="P13" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="C14" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="D14" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="E14" s="10">
+        <v>6</v>
+      </c>
+      <c r="F14" s="10">
         <v>6.1</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <v>5.4</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H14" s="10">
         <v>6</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="9">
         <v>5.2</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J14" s="9">
         <v>4.3</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K14" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L14" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M14" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N14" s="9">
         <v>6.6</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O14" s="26">
         <v>7.3</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P14" s="9">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="Q14" s="17">
         <v>7</v>
       </c>
-      <c r="B14" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="C14" s="10">
-        <v>7.1</v>
-      </c>
-      <c r="D14" s="10">
-        <v>5.8</v>
-      </c>
-      <c r="E14" s="10">
-        <v>5.4</v>
-      </c>
-      <c r="F14" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="G14" s="10">
-        <v>5.6</v>
-      </c>
-      <c r="H14" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="I14" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="J14" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="K14" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="L14" s="9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M14" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="N14" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="O14" s="26">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P14" s="17">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="11">
         <v>5.5</v>
       </c>
       <c r="C15" s="10">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
       <c r="D15" s="10">
         <v>5.8</v>
       </c>
       <c r="E15" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="F15" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="H15" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="I15" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="J15" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="K15" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="L15" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M15" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="N15" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="O15" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P15" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="D16" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="E16" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="10">
         <v>5.6</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="10">
         <v>5.2</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H16" s="10">
         <v>4.2</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I16" s="9">
         <v>4.5</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J16" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K16" s="9">
         <v>3.8</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L16" s="9">
         <v>3.8</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M16" s="9">
         <v>3.3</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N16" s="9">
         <v>5.3</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O16" s="26">
         <v>5.9</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P16" s="9">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="Q16" s="17">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B17" s="11">
         <v>1.5</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C17" s="10">
         <v>1.9</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="10">
         <v>2.1</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <v>2.1</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>2.8</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G17" s="10">
         <v>2.7</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H17" s="10">
         <v>2.1</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I17" s="9">
         <v>2.1</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J17" s="9">
         <v>1.6</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K17" s="9">
         <v>1.6</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L17" s="9">
         <v>1.2</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M17" s="9">
         <v>1.4</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N17" s="9">
         <v>2.4</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O17" s="26">
         <v>1.7</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P17" s="9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="Q17" s="17">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B18" s="11">
         <v>4.7</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C18" s="10">
         <v>5.7</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D18" s="10">
         <v>4</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E18" s="10">
         <v>4.2</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F18" s="10">
         <v>5.3</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G18" s="10">
         <v>5</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H18" s="10">
         <v>3.6</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I18" s="9">
         <v>3.2</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J18" s="9">
         <v>2.7</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K18" s="9">
         <v>2.6</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L18" s="9">
         <v>2.1</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M18" s="9">
         <v>2.5</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N18" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O18" s="26">
         <v>4</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P18" s="9">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="Q18" s="17">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C19" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <v>5.8</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>5.3</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>5.4</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I19" s="14">
         <v>4.3</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J19" s="14">
         <v>3.3</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K19" s="14">
         <v>2.9</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L19" s="14">
         <v>2.5</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M19" s="14">
         <v>3.2</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N19" s="14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O19" s="27">
         <v>3.7</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P19" s="14">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="Q19" s="18">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B20" s="11">
         <v>5</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C20" s="10">
         <v>6.6</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>6.7</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E20" s="10">
         <v>6</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <v>5.8</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H20" s="10">
         <v>5.3</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I20" s="9">
         <v>5.5</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J20" s="9">
         <v>4.8</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="9">
         <v>4</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L20" s="9">
         <v>3.8</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M20" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N20" s="9">
         <v>6.5</v>
       </c>
-      <c r="O19" s="26">
+      <c r="O20" s="26">
         <v>6.5</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P20" s="9">
         <v>6.2183999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="Q20" s="17">
+        <v>5.9245999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B21" s="11">
         <v>2.9</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C21" s="10">
         <v>3.7</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D21" s="10">
         <v>3.6</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E21" s="10">
         <v>2.9</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F21" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G21" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H21" s="10">
         <v>4</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I21" s="9">
         <v>3.1</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J21" s="9">
         <v>2.4</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K21" s="9">
         <v>2.1</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L21" s="9">
         <v>2.5</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M21" s="9">
         <v>2.7</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N21" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O21" s="26">
         <v>2.5</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P21" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="Q21" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B22" s="11">
         <v>3.6</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C22" s="10">
         <v>3.4</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <v>3.9</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E22" s="10">
         <v>2.7</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>4.2</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G22" s="10">
         <v>4.3</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H22" s="10">
         <v>3.3</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I22" s="9">
         <v>3.2</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J22" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K22" s="9">
         <v>2.4</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L22" s="9">
         <v>2.1</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M22" s="9">
         <v>2.5</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N22" s="9">
         <v>2.5</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O22" s="26">
         <v>2</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P22" s="9">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="Q22" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B23" s="11">
         <v>3.5</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C23" s="10">
         <v>3.7</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>3.8</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>5.2</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>6.1</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G23" s="10">
         <v>5.2</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H23" s="10">
         <v>4.5</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I23" s="9">
         <v>4.5</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J23" s="9">
         <v>3.6</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K23" s="9">
         <v>3.6</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L23" s="9">
         <v>3.6</v>
-      </c>
-      <c r="M22" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="N22" s="9">
-        <v>4</v>
-      </c>
-      <c r="O22" s="26">
-        <v>2.7</v>
-      </c>
-      <c r="P22" s="17">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C23" s="10">
-        <v>6.7</v>
-      </c>
-      <c r="D23" s="10">
-        <v>5.8</v>
-      </c>
-      <c r="E23" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="F23" s="10">
-        <v>5.4</v>
-      </c>
-      <c r="G23" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="H23" s="10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I23" s="9">
-        <v>4</v>
-      </c>
-      <c r="J23" s="9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K23" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="L23" s="9">
-        <v>3.5</v>
       </c>
       <c r="M23" s="9">
         <v>3.6</v>
       </c>
       <c r="N23" s="9">
+        <v>4</v>
+      </c>
+      <c r="O23" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="P23" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C24" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="D24" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="E24" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="F24" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="G24" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="H24" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I24" s="9">
+        <v>4</v>
+      </c>
+      <c r="J24" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K24" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="L24" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="M24" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="N24" s="9">
         <v>4.3</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O24" s="26">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P24" s="9">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="Q24" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B25" s="11">
         <v>2.1</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C25" s="10">
         <v>2</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <v>2.6</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E25" s="10">
         <v>2.9</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="10">
         <v>2.6</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="10">
         <v>2.9</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H25" s="10">
         <v>2.6</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I25" s="9">
         <v>2.7</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J25" s="9">
         <v>1.7</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K25" s="9">
         <v>1.7</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L25" s="9">
         <v>2</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M25" s="9">
         <v>2</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N25" s="9">
         <v>1.7</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O25" s="26">
         <v>1.5</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P25" s="9">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="Q25" s="17">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B26" s="11">
         <v>3.2</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C26" s="10">
         <v>3.6</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <v>4.2</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E26" s="10">
         <v>4.3</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <v>4.2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <v>3.8</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H26" s="10">
         <v>3.4</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I26" s="9">
         <v>3</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J26" s="9">
         <v>2.8</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K26" s="9">
         <v>2.5</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L26" s="9">
         <v>2.5</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M26" s="9">
         <v>2.5</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N26" s="9">
         <v>6.1</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O26" s="26">
         <v>3.5</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P26" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="Q26" s="17">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B27" s="11">
         <v>4</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C27" s="10">
         <v>8</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <v>7.1</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E27" s="10">
         <v>5.3</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <v>5.8</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <v>6.3</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H27" s="10">
         <v>5.5</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I27" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J27" s="9">
         <v>4.7</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K27" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L27" s="9">
         <v>3.7</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M27" s="9">
         <v>4.7</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N27" s="9">
         <v>7</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O27" s="26">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P27" s="9">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="Q27" s="17">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B28" s="11">
         <v>3.8</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C28" s="10">
         <v>5.6</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <v>5.3</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>4.2</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F28" s="10">
         <v>4.3</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="10">
         <v>4.3</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H28" s="10">
         <v>4.7</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I28" s="9">
         <v>3.7</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J28" s="9">
         <v>3.7</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K28" s="9">
         <v>3.1</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L28" s="9">
         <v>3.1</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M28" s="9">
         <v>3.1</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N28" s="9">
         <v>8.4</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O28" s="26">
         <v>8.1999999999999993</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P28" s="9">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="11">
+      <c r="Q28" s="17">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="11">
         <v>3.3</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C29" s="10">
         <v>3.8</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D29" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E29" s="10">
         <v>3.3</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="10">
         <v>3.1</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G29" s="10">
         <v>3.1</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H29" s="10">
         <v>2.8</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I29" s="9">
         <v>2.7</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J29" s="9">
         <v>2</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K29" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L29" s="9">
         <v>2.1</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M29" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N29" s="9">
         <v>3.2</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O29" s="26">
         <v>3.1</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P29" s="9">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="Q29" s="17">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B30" s="11">
         <v>3.5</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C30" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D30" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E30" s="10">
         <v>4.5</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="10">
         <v>4.7</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="10">
         <v>4.7</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H30" s="10">
         <v>3.8</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I30" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J30" s="9">
         <v>2.8</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K30" s="9">
         <v>3.5</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L30" s="9">
         <v>3.1</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M30" s="9">
         <v>2.8</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N30" s="9">
         <v>2.4</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O30" s="26">
         <v>2.5</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P30" s="9">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="Q30" s="17">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B31" s="11">
         <v>4.3</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C31" s="10">
         <v>6.2</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <v>7.6</v>
-      </c>
-      <c r="E30" s="10">
-        <v>6.1</v>
-      </c>
-      <c r="F30" s="10">
-        <v>6.2</v>
-      </c>
-      <c r="G30" s="10">
-        <v>5.8</v>
-      </c>
-      <c r="H30" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I30" s="9">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J30" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="K30" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="L30" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="M30" s="9">
-        <v>3.8</v>
-      </c>
-      <c r="N30" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O30" s="26">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P30" s="17">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="11">
-        <v>5.7</v>
-      </c>
-      <c r="C31" s="10">
-        <v>5.9</v>
-      </c>
-      <c r="D31" s="10">
-        <v>8.1999999999999993</v>
       </c>
       <c r="E31" s="10">
         <v>6.1</v>
       </c>
       <c r="F31" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="G31" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="H31" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I31" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J31" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="K31" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="L31" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="M31" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="N31" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O31" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P31" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="11">
         <v>5.7</v>
       </c>
-      <c r="G31" s="10">
+      <c r="C32" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="D32" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E32" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="F32" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="G32" s="10">
         <v>6</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H32" s="10">
         <v>6.2</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I32" s="9">
         <v>7.5</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J32" s="9">
         <v>7.6</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K32" s="9">
         <v>6.9</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L32" s="9">
         <v>7.9</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M32" s="9">
         <v>6.4</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N32" s="9">
         <v>8</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O32" s="26">
         <v>6</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P32" s="9">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="Q32" s="17">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B33" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C33" s="10">
         <v>6.4</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <v>7.6</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <v>6.8</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <v>6.1</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <v>5.8</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H33" s="10">
         <v>4.8</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I33" s="9">
         <v>4.3</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J33" s="9">
         <v>4.2</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K33" s="9">
         <v>4</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L33" s="9">
         <v>3.8</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M33" s="9">
         <v>3.2</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N33" s="9">
         <v>3.2</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O33" s="26">
         <v>3.8</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P33" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="Q33" s="17">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B34" s="11">
         <v>5.3</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C34" s="10">
         <v>6</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <v>6.5</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <v>5.8</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <v>5.9</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H34" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I34" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J34" s="9">
         <v>3.6</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K34" s="9">
         <v>3.7</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L34" s="9">
         <v>4</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M34" s="9">
         <v>3.5</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N34" s="9">
         <v>5.6</v>
       </c>
-      <c r="O33" s="26">
+      <c r="O34" s="26">
         <v>5.9</v>
       </c>
-      <c r="P33" s="17">
+      <c r="P34" s="9">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="Q34" s="17">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B35" s="11">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="C34" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="D34" s="10">
-        <v>3.7</v>
-      </c>
-      <c r="E34" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="F34" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="G34" s="10">
-        <v>3.7</v>
-      </c>
-      <c r="H34" s="10">
-        <v>3.4</v>
-      </c>
-      <c r="I34" s="9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J34" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="K34" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="L34" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="M34" s="9">
-        <v>2.9</v>
-      </c>
-      <c r="N34" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="O34" s="26">
-        <v>2.6</v>
-      </c>
-      <c r="P34" s="17">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="11">
-        <v>2.2000000000000002</v>
       </c>
       <c r="C35" s="10">
         <v>3.2</v>
       </c>
       <c r="D35" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="E35" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="F35" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="G35" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="H35" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="I35" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J35" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="K35" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="L35" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="M35" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="N35" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="O35" s="26">
         <v>2.6</v>
       </c>
-      <c r="E35" s="10">
+      <c r="P35" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="Q35" s="17">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C36" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="E36" s="10">
         <v>2.5</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <v>2.5</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H36" s="10">
         <v>2.6</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I36" s="9">
         <v>2.6</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J36" s="9">
         <v>1.8</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K36" s="9">
         <v>1.7</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L36" s="9">
         <v>1.5</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M36" s="9">
         <v>1.9</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N36" s="9">
         <v>2.6</v>
       </c>
-      <c r="O35" s="26">
+      <c r="O36" s="26">
         <v>3</v>
       </c>
-      <c r="P35" s="17">
+      <c r="P36" s="9">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="Q36" s="17">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B37" s="11">
         <v>3</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C37" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D37" s="10">
         <v>5.2</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E37" s="10">
         <v>6.1</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <v>5.4</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G37" s="10">
         <v>4</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H37" s="10">
         <v>4.3</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I37" s="9">
         <v>3.9</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J37" s="9">
         <v>2</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K37" s="9">
         <v>2.6</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L37" s="9">
         <v>2.4</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M37" s="9">
         <v>2.5</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N37" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O37" s="26">
         <v>3.9</v>
       </c>
-      <c r="P36" s="17">
+      <c r="P37" s="9">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="15">
+      <c r="Q37" s="17">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="15">
         <v>4.2</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C38" s="16">
         <v>5.2</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D38" s="16">
         <v>5.3</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E38" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F38" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G38" s="16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H38" s="16">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I38" s="16">
         <v>4.2</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J38" s="16">
         <v>3.5</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K38" s="16">
         <v>3.3</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L38" s="16">
         <v>3.3</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M38" s="16">
         <v>3.4</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N38" s="16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O38" s="15">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P37" s="19">
+      <c r="P38" s="16">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" s="30" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="36"/>
-    </row>
-    <row r="39" spans="1:18" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-    </row>
-    <row r="40" spans="1:18" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
+      <c r="Q38" s="19">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="30" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
       <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-    </row>
-    <row r="41" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+    </row>
+    <row r="41" spans="1:19" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+    </row>
+    <row r="42" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-    </row>
-    <row r="42" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P42" s="20"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="25"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q43" s="20"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3221,7 +3423,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3231,7 +3433,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3241,7 +3443,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3251,11 +3453,23 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A40:P40"/>
+  <mergeCells count="5">
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="A40:Q40"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.79" right="0.79" top="0.98" bottom="0.98" header="0" footer="0"/>

--- a/Tabulados/td-entidad.xlsx
+++ b/Tabulados/td-entidad.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21573" windowHeight="9401"/>
   </bookViews>
   <sheets>
     <sheet name="tasa_desocupación" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Tasa de desocupación por entidad federativa</t>
   </si>
   <si>
-    <t>2008 -2021</t>
-  </si>
-  <si>
     <t>Notas:</t>
   </si>
   <si>
@@ -152,6 +149,12 @@
   </si>
   <si>
     <t>IV Trim</t>
+  </si>
+  <si>
+    <t>I Trim</t>
+  </si>
+  <si>
+    <t>IV trimestre 2008 - I trimestre 2022</t>
   </si>
 </sst>
 </file>
@@ -892,7 +895,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -956,13 +959,7 @@
     <xf numFmtId="0" fontId="23" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,17 +983,20 @@
     <xf numFmtId="0" fontId="23" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1361,32 +1361,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="3"/>
+    <col min="6" max="7" width="9.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.875" style="3" customWidth="1"/>
+    <col min="15" max="16" width="10.25" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1404,10 +1404,11 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1423,8 +1424,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1440,12 +1442,13 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="37">
         <v>2008</v>
       </c>
       <c r="C4" s="30">
@@ -1484,103 +1487,112 @@
       <c r="N4" s="30">
         <v>2020</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="30">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="33" t="s">
+      <c r="P4" s="31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="8">
         <v>5.7</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="7">
         <v>6.8</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="7">
         <v>6.9</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="7">
         <v>6.3</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="7">
         <v>6</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="7">
         <v>5.9</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="7">
         <v>5.5</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="6">
         <v>3.9</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="6">
         <v>3.7</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="6">
         <v>3.2</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="6">
         <v>3.4</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="6">
         <v>5.2</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="6">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>1</v>
       </c>
@@ -1623,11 +1635,14 @@
       <c r="N7" s="6">
         <v>2.9</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="14">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>2</v>
       </c>
@@ -1670,11 +1685,14 @@
       <c r="N8" s="6">
         <v>5.2</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="6">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="14">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>3</v>
       </c>
@@ -1717,11 +1735,14 @@
       <c r="N9" s="6">
         <v>3.4</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="14">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -1764,11 +1785,14 @@
       <c r="N10" s="6">
         <v>6.2</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="6">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>4</v>
       </c>
@@ -1811,11 +1835,14 @@
       <c r="N11" s="6">
         <v>3.8</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="6">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>5</v>
       </c>
@@ -1858,11 +1885,14 @@
       <c r="N12" s="6">
         <v>2.8</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="6">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
@@ -1905,11 +1935,14 @@
       <c r="N13" s="6">
         <v>3.7</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="6">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="14">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>32</v>
       </c>
@@ -1952,11 +1985,14 @@
       <c r="N14" s="6">
         <v>6.6</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="6">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="14">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
@@ -1999,11 +2035,14 @@
       <c r="N15" s="6">
         <v>4.8</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="6">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="14">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>8</v>
       </c>
@@ -2046,11 +2085,14 @@
       <c r="N16" s="6">
         <v>5.3</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="6">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="14">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>9</v>
       </c>
@@ -2093,11 +2135,14 @@
       <c r="N17" s="6">
         <v>2.4</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="6">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>10</v>
       </c>
@@ -2140,11 +2185,14 @@
       <c r="N18" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="6">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>11</v>
       </c>
@@ -2187,11 +2235,14 @@
       <c r="N19" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="11">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="15">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>12</v>
       </c>
@@ -2234,11 +2285,14 @@
       <c r="N20" s="6">
         <v>6.5</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="6">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="14">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>28</v>
       </c>
@@ -2281,11 +2335,14 @@
       <c r="N21" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="6">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>13</v>
       </c>
@@ -2328,11 +2385,14 @@
       <c r="N22" s="6">
         <v>2.5</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="6">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P22" s="14">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>14</v>
       </c>
@@ -2375,11 +2435,14 @@
       <c r="N23" s="6">
         <v>4</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="6">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P23" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>15</v>
       </c>
@@ -2422,11 +2485,14 @@
       <c r="N24" s="6">
         <v>4.3</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="6">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P24" s="14">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>16</v>
       </c>
@@ -2469,11 +2535,14 @@
       <c r="N25" s="6">
         <v>1.7</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -2516,11 +2585,14 @@
       <c r="N26" s="6">
         <v>6.1</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="6">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P26" s="14">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>18</v>
       </c>
@@ -2563,11 +2635,14 @@
       <c r="N27" s="6">
         <v>7</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27" s="6">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P27" s="14">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>19</v>
       </c>
@@ -2610,11 +2685,14 @@
       <c r="N28" s="6">
         <v>8.4</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="6">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P28" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>33</v>
       </c>
@@ -2657,11 +2735,14 @@
       <c r="N29" s="6">
         <v>3.2</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29" s="6">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P29" s="14">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>20</v>
       </c>
@@ -2704,11 +2785,14 @@
       <c r="N30" s="6">
         <v>2.4</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O30" s="6">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P30" s="14">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>21</v>
       </c>
@@ -2751,11 +2835,14 @@
       <c r="N31" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O31" s="6">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P31" s="14">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>22</v>
       </c>
@@ -2798,11 +2885,14 @@
       <c r="N32" s="6">
         <v>8</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32" s="6">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P32" s="14">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>23</v>
       </c>
@@ -2845,11 +2935,14 @@
       <c r="N33" s="6">
         <v>3.2</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33" s="6">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P33" s="14">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>24</v>
       </c>
@@ -2892,11 +2985,14 @@
       <c r="N34" s="6">
         <v>5.6</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34" s="6">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P34" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>29</v>
       </c>
@@ -2939,11 +3035,14 @@
       <c r="N35" s="6">
         <v>3.4</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="6">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P35" s="14">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>25</v>
       </c>
@@ -2986,11 +3085,14 @@
       <c r="N36" s="6">
         <v>2.6</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O36" s="6">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P36" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>26</v>
       </c>
@@ -3033,11 +3135,14 @@
       <c r="N37" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O37" s="6">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P37" s="14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>34</v>
       </c>
@@ -3080,13 +3185,16 @@
       <c r="N38" s="13">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O38" s="16">
+      <c r="O38" s="13">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="23" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P38" s="16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="23" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -3103,72 +3211,76 @@
       <c r="N39" s="27"/>
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
-      <c r="Q39" s="28"/>
-    </row>
-    <row r="40" spans="1:17" s="24" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
+      <c r="Q39" s="27"/>
+      <c r="R39" s="28"/>
+    </row>
+    <row r="40" spans="1:18" s="24" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+    </row>
+    <row r="41" spans="1:18" s="25" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-    </row>
-    <row r="41" spans="1:17" s="25" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="29"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="36"/>
       <c r="Q41" s="29"/>
-    </row>
-    <row r="42" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
+      <c r="R41" s="29"/>
+    </row>
+    <row r="42" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-    </row>
-    <row r="43" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+    </row>
+    <row r="43" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="O43" s="17"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P43" s="34"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3178,7 +3290,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3188,7 +3300,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3198,7 +3310,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3208,7 +3320,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>

--- a/Tabulados/td-entidad.xlsx
+++ b/Tabulados/td-entidad.xlsx
@@ -151,10 +151,10 @@
     <t>IV Trim</t>
   </si>
   <si>
-    <t>II Trim</t>
-  </si>
-  <si>
-    <t>IV trimestre 2012 - II trimestre 2022</t>
+    <t>IV trimestre 2012 - III trimestre 2022</t>
+  </si>
+  <si>
+    <t>III Trim</t>
   </si>
 </sst>
 </file>
@@ -1002,21 +1002,6 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1033,6 +1018,21 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1459,7 +1459,7 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="32">
@@ -1500,7 +1500,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="33" t="s">
         <v>39</v>
       </c>
@@ -1532,14 +1532,14 @@
         <v>39</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="7">
@@ -1558,13 +1558,13 @@
         <v>3.9</v>
       </c>
       <c r="G6" s="6">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H6" s="6">
         <v>3.2</v>
       </c>
       <c r="I6" s="6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J6" s="6">
         <v>5.2</v>
@@ -1572,15 +1572,15 @@
       <c r="K6" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L6" s="44">
-        <v>3.9</v>
+      <c r="L6" s="39">
+        <v>4.5999999999999996</v>
       </c>
       <c r="M6" s="10">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="7">
@@ -1593,7 +1593,7 @@
         <v>4.7</v>
       </c>
       <c r="E7" s="6">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F7" s="6">
         <v>2.2999999999999998</v>
@@ -1613,15 +1613,15 @@
       <c r="K7" s="6">
         <v>2</v>
       </c>
-      <c r="L7" s="44">
-        <v>2.4</v>
+      <c r="L7" s="39">
+        <v>2.9</v>
       </c>
       <c r="M7" s="10">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="7">
@@ -1634,7 +1634,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="6">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="F8" s="6">
         <v>4.2</v>
@@ -1643,26 +1643,26 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="H8" s="6">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I8" s="6">
-        <v>3.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J8" s="6">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K8" s="6">
         <v>2.6</v>
       </c>
-      <c r="L8" s="44">
-        <v>4.4000000000000004</v>
+      <c r="L8" s="39">
+        <v>4.3</v>
       </c>
       <c r="M8" s="10">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="7">
@@ -1695,15 +1695,15 @@
       <c r="K9" s="6">
         <v>3</v>
       </c>
-      <c r="L9" s="44">
-        <v>2.9</v>
+      <c r="L9" s="39">
+        <v>3.1</v>
       </c>
       <c r="M9" s="10">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="34" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="7">
@@ -1716,10 +1716,10 @@
         <v>5.3</v>
       </c>
       <c r="E10" s="6">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="F10" s="6">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G10" s="6">
         <v>3.7</v>
@@ -1736,15 +1736,15 @@
       <c r="K10" s="6">
         <v>4.8</v>
       </c>
-      <c r="L10" s="44">
-        <v>4.8</v>
+      <c r="L10" s="39">
+        <v>4.9000000000000004</v>
       </c>
       <c r="M10" s="10">
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="7">
@@ -1757,7 +1757,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="6">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F11" s="6">
         <v>3.5</v>
@@ -1769,7 +1769,7 @@
         <v>3.7</v>
       </c>
       <c r="I11" s="6">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J11" s="6">
         <v>3.8</v>
@@ -1777,15 +1777,15 @@
       <c r="K11" s="6">
         <v>3.1</v>
       </c>
-      <c r="L11" s="44">
-        <v>3.2</v>
+      <c r="L11" s="39">
+        <v>2.9</v>
       </c>
       <c r="M11" s="10">
         <v>2.6</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="7">
@@ -1798,10 +1798,10 @@
         <v>2.9</v>
       </c>
       <c r="E12" s="6">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F12" s="6">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G12" s="6">
         <v>2.5</v>
@@ -1813,20 +1813,20 @@
         <v>2.5</v>
       </c>
       <c r="J12" s="6">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="K12" s="6">
         <v>3.3</v>
       </c>
-      <c r="L12" s="44">
-        <v>2.9</v>
+      <c r="L12" s="39">
+        <v>3.3</v>
       </c>
       <c r="M12" s="10">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="7">
@@ -1859,15 +1859,15 @@
       <c r="K13" s="6">
         <v>2.9</v>
       </c>
-      <c r="L13" s="44">
-        <v>3.6</v>
+      <c r="L13" s="39">
+        <v>3</v>
       </c>
       <c r="M13" s="10">
         <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="7">
@@ -1900,15 +1900,15 @@
       <c r="K14" s="6">
         <v>5.9</v>
       </c>
-      <c r="L14" s="44">
-        <v>7.3</v>
+      <c r="L14" s="39">
+        <v>7</v>
       </c>
       <c r="M14" s="10">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="7">
@@ -1921,7 +1921,7 @@
         <v>5.5</v>
       </c>
       <c r="E15" s="6">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="F15" s="6">
         <v>3.5</v>
@@ -1933,23 +1933,23 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I15" s="6">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J15" s="6">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K15" s="6">
         <v>3.4</v>
       </c>
-      <c r="L15" s="44">
-        <v>4.5999999999999996</v>
+      <c r="L15" s="39">
+        <v>4.2</v>
       </c>
       <c r="M15" s="10">
         <v>3.3</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="7">
@@ -1982,15 +1982,15 @@
       <c r="K16" s="6">
         <v>3.9</v>
       </c>
-      <c r="L16" s="44">
-        <v>5.6</v>
+      <c r="L16" s="39">
+        <v>5.4</v>
       </c>
       <c r="M16" s="10">
-        <v>2.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="7">
@@ -2006,7 +2006,7 @@
         <v>2.1</v>
       </c>
       <c r="F17" s="6">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G17" s="6">
         <v>1.6</v>
@@ -2015,7 +2015,7 @@
         <v>1.2</v>
       </c>
       <c r="I17" s="6">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J17" s="6">
         <v>2.4</v>
@@ -2023,15 +2023,15 @@
       <c r="K17" s="6">
         <v>1.4</v>
       </c>
-      <c r="L17" s="44">
-        <v>1.5</v>
+      <c r="L17" s="39">
+        <v>1.6</v>
       </c>
       <c r="M17" s="10">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="7">
@@ -2064,15 +2064,15 @@
       <c r="K18" s="6">
         <v>2.7</v>
       </c>
-      <c r="L18" s="44">
-        <v>2.2000000000000002</v>
+      <c r="L18" s="39">
+        <v>2.9</v>
       </c>
       <c r="M18" s="10">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="8">
@@ -2097,7 +2097,7 @@
         <v>2.5</v>
       </c>
       <c r="I19" s="9">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J19" s="9">
         <v>4.0999999999999996</v>
@@ -2105,15 +2105,15 @@
       <c r="K19" s="9">
         <v>3.1</v>
       </c>
-      <c r="L19" s="45">
-        <v>3.3</v>
+      <c r="L19" s="40">
+        <v>3.4</v>
       </c>
       <c r="M19" s="11">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="7">
@@ -2126,7 +2126,7 @@
         <v>5.3</v>
       </c>
       <c r="E20" s="6">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="F20" s="6">
         <v>4.8</v>
@@ -2141,20 +2141,20 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J20" s="6">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="K20" s="6">
         <v>4.7</v>
       </c>
-      <c r="L20" s="44">
-        <v>6.1</v>
+      <c r="L20" s="39">
+        <v>5.8</v>
       </c>
       <c r="M20" s="10">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="7">
@@ -2173,7 +2173,7 @@
         <v>2.4</v>
       </c>
       <c r="G21" s="6">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H21" s="6">
         <v>2.5</v>
@@ -2182,20 +2182,20 @@
         <v>2.7</v>
       </c>
       <c r="J21" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K21" s="6">
         <v>2.5</v>
       </c>
-      <c r="L21" s="44">
-        <v>2</v>
+      <c r="L21" s="39">
+        <v>2.2000000000000002</v>
       </c>
       <c r="M21" s="10">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="7">
@@ -2208,7 +2208,7 @@
         <v>3.3</v>
       </c>
       <c r="E22" s="6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F22" s="6">
         <v>2.2999999999999998</v>
@@ -2220,23 +2220,23 @@
         <v>2.1</v>
       </c>
       <c r="I22" s="6">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J22" s="6">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K22" s="6">
         <v>2.4</v>
       </c>
-      <c r="L22" s="44">
-        <v>2.6</v>
+      <c r="L22" s="39">
+        <v>2.5</v>
       </c>
       <c r="M22" s="10">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="7">
@@ -2269,15 +2269,15 @@
       <c r="K23" s="6">
         <v>2.6</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="39">
+        <v>3.4</v>
+      </c>
+      <c r="M23" s="10">
         <v>2.8</v>
       </c>
-      <c r="M23" s="10">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="7">
@@ -2299,26 +2299,26 @@
         <v>3.4</v>
       </c>
       <c r="H24" s="6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I24" s="6">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J24" s="6">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K24" s="6">
         <v>3.7</v>
       </c>
-      <c r="L24" s="44">
-        <v>4.7</v>
+      <c r="L24" s="39">
+        <v>4.5999999999999996</v>
       </c>
       <c r="M24" s="10">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="7">
@@ -2337,7 +2337,7 @@
         <v>1.7</v>
       </c>
       <c r="G25" s="6">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H25" s="6">
         <v>2</v>
@@ -2351,15 +2351,15 @@
       <c r="K25" s="6">
         <v>1.5</v>
       </c>
-      <c r="L25" s="44">
-        <v>1.6</v>
+      <c r="L25" s="39">
+        <v>1.7</v>
       </c>
       <c r="M25" s="10">
         <v>1.4</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="7">
@@ -2387,20 +2387,20 @@
         <v>2.5</v>
       </c>
       <c r="J26" s="6">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="K26" s="6">
         <v>3.8</v>
       </c>
-      <c r="L26" s="44">
-        <v>4</v>
+      <c r="L26" s="39">
+        <v>4.2</v>
       </c>
       <c r="M26" s="10">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="7">
@@ -2416,10 +2416,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F27" s="6">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G27" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="H27" s="6">
         <v>3.7</v>
@@ -2428,20 +2428,20 @@
         <v>4.7</v>
       </c>
       <c r="J27" s="6">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="K27" s="6">
         <v>5.7</v>
       </c>
-      <c r="L27" s="44">
-        <v>5.8</v>
+      <c r="L27" s="39">
+        <v>5.4</v>
       </c>
       <c r="M27" s="10">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="7">
@@ -2457,10 +2457,10 @@
         <v>3.7</v>
       </c>
       <c r="F28" s="6">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="G28" s="6">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H28" s="6">
         <v>3.1</v>
@@ -2469,20 +2469,20 @@
         <v>3.1</v>
       </c>
       <c r="J28" s="6">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="K28" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L28" s="44">
-        <v>6.2</v>
+      <c r="L28" s="39">
+        <v>4.7</v>
       </c>
       <c r="M28" s="10">
         <v>2.9</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="7">
@@ -2495,7 +2495,7 @@
         <v>2.8</v>
       </c>
       <c r="E29" s="6">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="F29" s="6">
         <v>2</v>
@@ -2507,23 +2507,23 @@
         <v>2.1</v>
       </c>
       <c r="I29" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J29" s="6">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K29" s="6">
         <v>3.3</v>
       </c>
-      <c r="L29" s="44">
-        <v>2.9</v>
+      <c r="L29" s="39">
+        <v>4.2</v>
       </c>
       <c r="M29" s="10">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7">
@@ -2539,13 +2539,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F30" s="6">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G30" s="6">
         <v>3.5</v>
       </c>
       <c r="H30" s="6">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I30" s="6">
         <v>2.8</v>
@@ -2556,15 +2556,15 @@
       <c r="K30" s="6">
         <v>2.7</v>
       </c>
-      <c r="L30" s="44">
-        <v>2.6</v>
+      <c r="L30" s="39">
+        <v>2.9</v>
       </c>
       <c r="M30" s="10">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="7">
@@ -2577,7 +2577,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E31" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="F31" s="6">
         <v>4.2</v>
@@ -2586,7 +2586,7 @@
         <v>3.6</v>
       </c>
       <c r="H31" s="6">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I31" s="6">
         <v>3.8</v>
@@ -2597,15 +2597,15 @@
       <c r="K31" s="6">
         <v>3.6</v>
       </c>
-      <c r="L31" s="44">
-        <v>2.9</v>
+      <c r="L31" s="39">
+        <v>4.4000000000000004</v>
       </c>
       <c r="M31" s="10">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="7">
@@ -2624,10 +2624,10 @@
         <v>7.6</v>
       </c>
       <c r="G32" s="6">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="H32" s="6">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="I32" s="6">
         <v>6.4</v>
@@ -2638,15 +2638,15 @@
       <c r="K32" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L32" s="44">
-        <v>5.9</v>
+      <c r="L32" s="39">
+        <v>6.3</v>
       </c>
       <c r="M32" s="10">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="7">
@@ -2668,26 +2668,26 @@
         <v>4</v>
       </c>
       <c r="H33" s="6">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I33" s="6">
         <v>3.2</v>
       </c>
       <c r="J33" s="6">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K33" s="6">
         <v>3.6</v>
       </c>
-      <c r="L33" s="44">
-        <v>3</v>
+      <c r="L33" s="39">
+        <v>3.7</v>
       </c>
       <c r="M33" s="10">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="7">
@@ -2720,15 +2720,15 @@
       <c r="K34" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L34" s="44">
-        <v>5.0999999999999996</v>
+      <c r="L34" s="39">
+        <v>5.5</v>
       </c>
       <c r="M34" s="10">
         <v>3.8</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="7">
@@ -2761,15 +2761,15 @@
       <c r="K35" s="6">
         <v>3.3</v>
       </c>
-      <c r="L35" s="44">
-        <v>4.2</v>
+      <c r="L35" s="39">
+        <v>3.4</v>
       </c>
       <c r="M35" s="10">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="7">
@@ -2797,20 +2797,20 @@
         <v>1.9</v>
       </c>
       <c r="J36" s="6">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K36" s="6">
         <v>2.1</v>
       </c>
-      <c r="L36" s="44">
-        <v>2.5</v>
+      <c r="L36" s="39">
+        <v>2.4</v>
       </c>
       <c r="M36" s="10">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="7">
@@ -2823,72 +2823,72 @@
         <v>4.3</v>
       </c>
       <c r="E37" s="6">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="F37" s="6">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G37" s="6">
         <v>2.6</v>
       </c>
       <c r="H37" s="6">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I37" s="6">
         <v>2.5</v>
       </c>
       <c r="J37" s="6">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="K37" s="6">
         <v>2.8</v>
       </c>
-      <c r="L37" s="44">
-        <v>3.6</v>
+      <c r="L37" s="39">
+        <v>3.8</v>
       </c>
       <c r="M37" s="10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C38" s="37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D38" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E38" s="37">
+        <v>4.2</v>
+      </c>
+      <c r="F38" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="G38" s="37">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="42">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C38" s="42">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D38" s="42">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E38" s="42">
+      <c r="H38" s="37">
+        <v>3.3</v>
+      </c>
+      <c r="I38" s="37">
+        <v>3.4</v>
+      </c>
+      <c r="J38" s="37">
+        <v>4.5</v>
+      </c>
+      <c r="K38" s="37">
+        <v>3.7</v>
+      </c>
+      <c r="L38" s="41">
         <v>4.2</v>
       </c>
-      <c r="F38" s="42">
-        <v>3.5</v>
-      </c>
-      <c r="G38" s="42">
-        <v>3.3</v>
-      </c>
-      <c r="H38" s="42">
-        <v>3.3</v>
-      </c>
-      <c r="I38" s="42">
+      <c r="M38" s="38">
         <v>3.4</v>
-      </c>
-      <c r="J38" s="42">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K38" s="42">
-        <v>3.7</v>
-      </c>
-      <c r="L38" s="46">
-        <v>4.2</v>
-      </c>
-      <c r="M38" s="43">
-        <v>3.2</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="15" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2911,56 +2911,56 @@
       <c r="O39" s="20"/>
     </row>
     <row r="40" spans="1:15" s="16" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
       <c r="L40" s="30"/>
       <c r="M40" s="27"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
     </row>
     <row r="41" spans="1:15" s="17" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
       <c r="L41" s="31"/>
       <c r="M41" s="28"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
     </row>
     <row r="42" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K43" s="12"/>

--- a/Tabulados/td-entidad.xlsx
+++ b/Tabulados/td-entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -151,10 +151,7 @@
     <t>IV Trim</t>
   </si>
   <si>
-    <t>IV trimestre 2012 - III trimestre 2022</t>
-  </si>
-  <si>
-    <t>III Trim</t>
+    <t>IV trimestre 2012 - IV trimestre 2022</t>
   </si>
 </sst>
 </file>
@@ -600,18 +597,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -624,19 +612,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -880,9 +855,9 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -890,23 +865,23 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -921,7 +896,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -944,17 +919,17 @@
     <xf numFmtId="164" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -966,16 +941,16 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,6 +962,21 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="39" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -996,41 +986,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="39" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="39" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1396,20 +1355,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.125" style="3" customWidth="1"/>
-    <col min="2" max="13" width="9.5" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="11.375" style="3"/>
+    <col min="2" max="12" width="9.5" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1424,9 +1383,8 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1441,9 +1399,8 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1456,13 +1413,12 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="29">
         <v>2012</v>
       </c>
       <c r="C4" s="22">
@@ -1492,16 +1448,13 @@
       <c r="K4" s="22">
         <v>2021</v>
       </c>
-      <c r="L4" s="32">
-        <v>2021</v>
-      </c>
-      <c r="M4" s="23">
+      <c r="L4" s="23">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="33" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="30" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="24" t="s">
@@ -1531,15 +1484,12 @@
       <c r="K5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="L5" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="7">
@@ -1572,15 +1522,12 @@
       <c r="K6" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L6" s="39">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M6" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="L6" s="10">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="7">
@@ -1613,15 +1560,12 @@
       <c r="K7" s="6">
         <v>2</v>
       </c>
-      <c r="L7" s="39">
-        <v>2.9</v>
-      </c>
-      <c r="M7" s="10">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="L7" s="10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="7">
@@ -1654,15 +1598,12 @@
       <c r="K8" s="6">
         <v>2.6</v>
       </c>
-      <c r="L8" s="39">
-        <v>4.3</v>
-      </c>
-      <c r="M8" s="10">
+      <c r="L8" s="10">
         <v>2.9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="7">
@@ -1695,15 +1636,12 @@
       <c r="K9" s="6">
         <v>3</v>
       </c>
-      <c r="L9" s="39">
-        <v>3.1</v>
-      </c>
-      <c r="M9" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="L9" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="7">
@@ -1736,15 +1674,12 @@
       <c r="K10" s="6">
         <v>4.8</v>
       </c>
-      <c r="L10" s="39">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M10" s="10">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="L10" s="10">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="7">
@@ -1777,15 +1712,12 @@
       <c r="K11" s="6">
         <v>3.1</v>
       </c>
-      <c r="L11" s="39">
-        <v>2.9</v>
-      </c>
-      <c r="M11" s="10">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="L11" s="10">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="7">
@@ -1818,15 +1750,12 @@
       <c r="K12" s="6">
         <v>3.3</v>
       </c>
-      <c r="L12" s="39">
-        <v>3.3</v>
-      </c>
-      <c r="M12" s="10">
+      <c r="L12" s="10">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="7">
@@ -1859,15 +1788,12 @@
       <c r="K13" s="6">
         <v>2.9</v>
       </c>
-      <c r="L13" s="39">
-        <v>3</v>
-      </c>
-      <c r="M13" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="L13" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="7">
@@ -1900,15 +1826,12 @@
       <c r="K14" s="6">
         <v>5.9</v>
       </c>
-      <c r="L14" s="39">
-        <v>7</v>
-      </c>
-      <c r="M14" s="10">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="L14" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="7">
@@ -1941,15 +1864,12 @@
       <c r="K15" s="6">
         <v>3.4</v>
       </c>
-      <c r="L15" s="39">
-        <v>4.2</v>
-      </c>
-      <c r="M15" s="10">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="L15" s="10">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="7">
@@ -1982,15 +1902,12 @@
       <c r="K16" s="6">
         <v>3.9</v>
       </c>
-      <c r="L16" s="39">
-        <v>5.4</v>
-      </c>
-      <c r="M16" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="L16" s="10">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="7">
@@ -2023,15 +1940,12 @@
       <c r="K17" s="6">
         <v>1.4</v>
       </c>
-      <c r="L17" s="39">
-        <v>1.6</v>
-      </c>
-      <c r="M17" s="10">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="L17" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="7">
@@ -2064,15 +1978,12 @@
       <c r="K18" s="6">
         <v>2.7</v>
       </c>
-      <c r="L18" s="39">
-        <v>2.9</v>
-      </c>
-      <c r="M18" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="L18" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="8">
@@ -2105,15 +2016,12 @@
       <c r="K19" s="9">
         <v>3.1</v>
       </c>
-      <c r="L19" s="40">
-        <v>3.4</v>
-      </c>
-      <c r="M19" s="11">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="L19" s="11">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="7">
@@ -2146,15 +2054,12 @@
       <c r="K20" s="6">
         <v>4.7</v>
       </c>
-      <c r="L20" s="39">
-        <v>5.8</v>
-      </c>
-      <c r="M20" s="10">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="L20" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="7">
@@ -2187,15 +2092,12 @@
       <c r="K21" s="6">
         <v>2.5</v>
       </c>
-      <c r="L21" s="39">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M21" s="10">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="L21" s="10">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="7">
@@ -2228,15 +2130,12 @@
       <c r="K22" s="6">
         <v>2.4</v>
       </c>
-      <c r="L22" s="39">
-        <v>2.5</v>
-      </c>
-      <c r="M22" s="10">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="L22" s="10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="7">
@@ -2269,15 +2168,12 @@
       <c r="K23" s="6">
         <v>2.6</v>
       </c>
-      <c r="L23" s="39">
-        <v>3.4</v>
-      </c>
-      <c r="M23" s="10">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="L23" s="10">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="7">
@@ -2310,15 +2206,12 @@
       <c r="K24" s="6">
         <v>3.7</v>
       </c>
-      <c r="L24" s="39">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M24" s="10">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="L24" s="10">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="7">
@@ -2351,15 +2244,12 @@
       <c r="K25" s="6">
         <v>1.5</v>
       </c>
-      <c r="L25" s="39">
-        <v>1.7</v>
-      </c>
-      <c r="M25" s="10">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="L25" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="7">
@@ -2392,15 +2282,12 @@
       <c r="K26" s="6">
         <v>3.8</v>
       </c>
-      <c r="L26" s="39">
-        <v>4.2</v>
-      </c>
-      <c r="M26" s="10">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="L26" s="10">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="7">
@@ -2433,15 +2320,12 @@
       <c r="K27" s="6">
         <v>5.7</v>
       </c>
-      <c r="L27" s="39">
-        <v>5.4</v>
-      </c>
-      <c r="M27" s="10">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="L27" s="10">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="7">
@@ -2474,15 +2358,12 @@
       <c r="K28" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L28" s="39">
-        <v>4.7</v>
-      </c>
-      <c r="M28" s="10">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="L28" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="7">
@@ -2515,15 +2396,12 @@
       <c r="K29" s="6">
         <v>3.3</v>
       </c>
-      <c r="L29" s="39">
-        <v>4.2</v>
-      </c>
-      <c r="M29" s="10">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="L29" s="10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7">
@@ -2556,15 +2434,12 @@
       <c r="K30" s="6">
         <v>2.7</v>
       </c>
-      <c r="L30" s="39">
-        <v>2.9</v>
-      </c>
-      <c r="M30" s="10">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="L30" s="10">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="7">
@@ -2597,15 +2472,12 @@
       <c r="K31" s="6">
         <v>3.6</v>
       </c>
-      <c r="L31" s="39">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M31" s="10">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="L31" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="7">
@@ -2638,15 +2510,12 @@
       <c r="K32" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L32" s="39">
-        <v>6.3</v>
-      </c>
-      <c r="M32" s="10">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="L32" s="10">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="7">
@@ -2679,15 +2548,12 @@
       <c r="K33" s="6">
         <v>3.6</v>
       </c>
-      <c r="L33" s="39">
-        <v>3.7</v>
-      </c>
-      <c r="M33" s="10">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="L33" s="10">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="7">
@@ -2720,15 +2586,12 @@
       <c r="K34" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L34" s="39">
-        <v>5.5</v>
-      </c>
-      <c r="M34" s="10">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="L34" s="10">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="7">
@@ -2761,15 +2624,12 @@
       <c r="K35" s="6">
         <v>3.3</v>
       </c>
-      <c r="L35" s="39">
-        <v>3.4</v>
-      </c>
-      <c r="M35" s="10">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="L35" s="10">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="7">
@@ -2802,15 +2662,12 @@
       <c r="K36" s="6">
         <v>2.1</v>
       </c>
-      <c r="L36" s="39">
-        <v>2.4</v>
-      </c>
-      <c r="M36" s="10">
+      <c r="L36" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="7">
@@ -2843,55 +2700,49 @@
       <c r="K37" s="6">
         <v>2.8</v>
       </c>
-      <c r="L37" s="39">
-        <v>3.8</v>
-      </c>
-      <c r="M37" s="10">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="L37" s="10">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="34">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="34">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="34">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="34">
         <v>4.2</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="34">
         <v>3.5</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="34">
         <v>3.3</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H38" s="34">
         <v>3.3</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="34">
         <v>3.4</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="34">
         <v>4.5</v>
       </c>
-      <c r="K38" s="37">
+      <c r="K38" s="34">
         <v>3.7</v>
       </c>
-      <c r="L38" s="41">
-        <v>4.2</v>
-      </c>
-      <c r="M38" s="38">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="15" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="15" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>36</v>
       </c>
@@ -2907,91 +2758,87 @@
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="20"/>
-    </row>
-    <row r="40" spans="1:15" s="16" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
+      <c r="N39" s="20"/>
+    </row>
+    <row r="40" spans="1:14" s="16" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="27"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="13"/>
       <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-    </row>
-    <row r="41" spans="1:15" s="17" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="44" t="s">
+    </row>
+    <row r="41" spans="1:14" s="17" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="28"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="21"/>
       <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-    </row>
-    <row r="42" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
+    </row>
+    <row r="42" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-    </row>
-    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+    </row>
+    <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K43" s="12"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="26"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>

--- a/Tabulados/td-entidad.xlsx
+++ b/Tabulados/td-entidad.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6373F2-1CDE-4E68-B1C0-630D23709F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21573" windowHeight="9401"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasa_desocupación" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -151,13 +163,16 @@
     <t>IV Trim</t>
   </si>
   <si>
-    <t>IV trimestre 2012 - IV trimestre 2022</t>
+    <t>IV trimestre 2012 - I trimestre 2023</t>
+  </si>
+  <si>
+    <t>I Trim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -597,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -778,29 +793,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -811,26 +804,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -907,34 +896,22 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="28" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="28" fillId="34" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,16 +924,7 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -968,19 +936,12 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="21" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="21" fillId="39" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -992,32 +953,58 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="39" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis1 2" xfId="47"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Énfasis2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2 2" xfId="49"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% - Énfasis3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3 2" xfId="51"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - Énfasis4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4 2" xfId="53"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% - Énfasis5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5 2" xfId="55"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% - Énfasis6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6 2" xfId="57"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="40% - Énfasis1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1 2" xfId="48"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% - Énfasis2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2 2" xfId="50"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% - Énfasis3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3 2" xfId="52"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% - Énfasis4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4 2" xfId="54"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% - Énfasis5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5 2" xfId="56"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% - Énfasis6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6 2" xfId="58"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="60% - Énfasis1" xfId="13" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis2" xfId="14" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis3" xfId="15" builtinId="40" customBuiltin="1"/>
@@ -1040,11 +1027,11 @@
     <cellStyle name="Incorrecto" xfId="31" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="32" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="33"/>
-    <cellStyle name="Normal 3" xfId="44"/>
-    <cellStyle name="Normal_INDICA8" xfId="34"/>
+    <cellStyle name="Normal 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal_INDICA8" xfId="34" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Notas" xfId="35" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Notas 2" xfId="46"/>
+    <cellStyle name="Notas 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="Porcentaje" xfId="59" builtinId="5"/>
     <cellStyle name="Salida" xfId="36" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="37" builtinId="11" customBuiltin="1"/>
@@ -1052,7 +1039,7 @@
     <cellStyle name="Título" xfId="39" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="41" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="42" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="45"/>
+    <cellStyle name="Título 4" xfId="45" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
     <cellStyle name="Total" xfId="43" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1144,6 +1131,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1179,6 +1183,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1354,21 +1375,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="3" customWidth="1"/>
-    <col min="2" max="12" width="9.5" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.375" style="3"/>
+    <col min="1" max="1" width="24.109375" style="3" customWidth="1"/>
+    <col min="2" max="14" width="9.44140625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="11.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1383,8 +1404,10 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1399,8 +1422,10 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1413,1432 +1438,1652 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="22">
         <v>2012</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>2013</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>2014</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>2015</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="18">
         <v>2016</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="18">
         <v>2017</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="18">
         <v>2018</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="18">
         <v>2019</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="18">
         <v>2020</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="18">
         <v>2021</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="30" t="s">
+      <c r="M4" s="18">
+        <v>2022</v>
+      </c>
+      <c r="N4" s="18">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="M5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="38">
         <v>6</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="36">
         <v>5.9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="36">
         <v>5.5</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="31">
         <v>3.9</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="31">
         <v>3.6</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="31">
         <v>3.2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="31">
         <v>3.3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="31">
         <v>5.2</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="31">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="M6" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="N6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="38">
         <v>5.9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="36">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="36">
         <v>4.7</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="31">
         <v>3.8</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="31">
         <v>2.7</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="31">
         <v>2.9</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="31">
         <v>2</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="31">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="M7" s="31">
+        <v>1.9</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="38">
         <v>5.6</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="36">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="36">
         <v>6</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="31">
         <v>4.3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="31">
         <v>4.2</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="31">
         <v>3.9</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="31">
         <v>5.4</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="31">
         <v>2.6</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="31">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="M8" s="31">
+        <v>2.9</v>
+      </c>
+      <c r="N8" s="6">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="38">
         <v>2.1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="36">
         <v>2.1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="36">
         <v>2.6</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="31">
         <v>3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="31">
         <v>3.9</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="31">
         <v>3.4</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="31">
         <v>3.5</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="31">
         <v>3.2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="31">
         <v>3.4</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="31">
         <v>3</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="M9" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="38">
         <v>5.6</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="36">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="36">
         <v>5.3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="31">
         <v>4.3</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="31">
         <v>4</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="31">
         <v>3.7</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="31">
         <v>3.6</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="31">
         <v>4.3</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="31">
         <v>6.2</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="31">
         <v>4.8</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="31">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="M10" s="31">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="38">
         <v>4.8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="36">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="36">
         <v>5</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="31">
         <v>4.2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="31">
         <v>3.5</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="31">
         <v>3.5</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="31">
         <v>3.7</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="31">
         <v>3</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="31">
         <v>3.8</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="31">
         <v>3.1</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="31">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="M11" s="31">
+        <v>2.8</v>
+      </c>
+      <c r="N11" s="6">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="38">
         <v>2.5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="36">
         <v>3.6</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="36">
         <v>2.9</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="31">
         <v>3.2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="31">
         <v>2.7</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="31">
         <v>2.5</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="31">
         <v>3.5</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="31">
         <v>2.5</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="31">
         <v>2.7</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="31">
         <v>3.3</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="31">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="M12" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="N12" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="38">
         <v>5.8</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="36">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="36">
         <v>4.3</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="31">
         <v>3.4</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="31">
         <v>2.4</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="31">
         <v>2.6</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="31">
         <v>2.6</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="31">
         <v>3.7</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="31">
         <v>2.9</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="M13" s="31">
+        <v>2.6</v>
+      </c>
+      <c r="N13" s="6">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="38">
         <v>6.1</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="36">
         <v>5.4</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="36">
         <v>6</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="31">
         <v>5.2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="31">
         <v>4.3</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="31">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="31">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="31">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="31">
         <v>6.6</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="31">
         <v>5.9</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="31">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="M14" s="31">
+        <v>5.8</v>
+      </c>
+      <c r="N14" s="6">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="38">
         <v>5.5</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="36">
         <v>5.6</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="36">
         <v>5.5</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="31">
         <v>4</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="31">
         <v>3.5</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="31">
         <v>3.3</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="31">
         <v>3.3</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="31">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="31">
         <v>3.4</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="31">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="M15" s="31">
+        <v>3.6</v>
+      </c>
+      <c r="N15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="38">
         <v>5.6</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="36">
         <v>5.2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="36">
         <v>4.2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="31">
         <v>4.5</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="31">
         <v>3.8</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="31">
         <v>3.8</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="31">
         <v>3.3</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="31">
         <v>5.3</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="31">
         <v>3.9</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="31">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="M16" s="31">
+        <v>3.6</v>
+      </c>
+      <c r="N16" s="6">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="38">
         <v>2.8</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="36">
         <v>2.7</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="36">
         <v>2.1</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="31">
         <v>2.1</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="31">
         <v>1.7</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="31">
         <v>1.6</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="31">
         <v>1.2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="31">
         <v>1.5</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="31">
         <v>2.4</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="31">
         <v>1.4</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="31">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="M17" s="31">
+        <v>1.6</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="38">
         <v>5.3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="36">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="36">
         <v>3.6</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="31">
         <v>3.2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="31">
         <v>2.7</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="31">
         <v>2.6</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="31">
         <v>2.1</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="31">
         <v>2.5</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="31">
         <v>2.7</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="31">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="M18" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N18" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="39">
         <v>5.4</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="37">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="37">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="32">
         <v>4.3</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="32">
         <v>3.3</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="32">
         <v>2.9</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="32">
         <v>2.5</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="32">
         <v>3.1</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="32">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="32">
         <v>3.1</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="32">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="M19" s="32">
+        <v>2.4</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="38">
         <v>5.8</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="36">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="36">
         <v>5.3</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="31">
         <v>5.4</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="31">
         <v>4.8</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="31">
         <v>4</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="31">
         <v>3.8</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="31">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="31">
         <v>6.4</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="31">
         <v>4.7</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="31">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="M20" s="31">
+        <v>5.3</v>
+      </c>
+      <c r="N20" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="38">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="36">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="36">
         <v>4</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="31">
         <v>3.1</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="31">
         <v>2.4</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="31">
         <v>2.5</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="31">
         <v>2.7</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="31">
         <v>2.5</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="31">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="M21" s="31">
+        <v>1.6</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="38">
         <v>4.2</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="36">
         <v>4.3</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="36">
         <v>3.3</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="31">
         <v>3.1</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="31">
         <v>2.4</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="31">
         <v>2.1</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="31">
         <v>2.4</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="31">
         <v>2.4</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="31">
         <v>2.4</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="31">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="M22" s="31">
+        <v>1.9</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="38">
         <v>6.1</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="36">
         <v>5.2</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="36">
         <v>4.5</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="31">
         <v>4.5</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="31">
         <v>3.6</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="31">
         <v>3.6</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="31">
         <v>3.6</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="31">
         <v>3.6</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="31">
         <v>4</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="31">
         <v>2.6</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="31">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="M23" s="31">
+        <v>3</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="38">
         <v>5.4</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="36">
         <v>4.7</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="36">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="31">
         <v>4</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="31">
         <v>3.4</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="31">
         <v>3.6</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="31">
         <v>3.7</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="31">
         <v>4.2</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="31">
         <v>3.7</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="31">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="M24" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="N24" s="6">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="38">
         <v>2.6</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="36">
         <v>2.9</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="36">
         <v>2.6</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="31">
         <v>2.7</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="31">
         <v>1.7</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="31">
         <v>1.8</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="31">
         <v>2</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="31">
         <v>2</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="31">
         <v>1.7</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="31">
         <v>1.5</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="31">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="M25" s="31">
+        <v>1.6</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="38">
         <v>4.2</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="36">
         <v>3.8</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="36">
         <v>3.4</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="31">
         <v>3</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="31">
         <v>2.8</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="31">
         <v>2.5</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="31">
         <v>2.5</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="31">
         <v>2.5</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="31">
         <v>6</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="31">
         <v>3.8</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="31">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="M26" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="N26" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="38">
         <v>5.8</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="36">
         <v>6.3</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="36">
         <v>5.5</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="31">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="31">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="31">
         <v>4.5</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="31">
         <v>3.7</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="31">
         <v>4.7</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="31">
         <v>6.9</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="31">
         <v>5.7</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="31">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="M27" s="31">
+        <v>3.6</v>
+      </c>
+      <c r="N27" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="38">
         <v>4.3</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="36">
         <v>4.3</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="36">
         <v>4.7</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="31">
         <v>3.7</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="31">
         <v>3.8</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="31">
         <v>3.2</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="31">
         <v>3.1</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="31">
         <v>3.1</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="31">
         <v>8.6</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="M28" s="31">
+        <v>3</v>
+      </c>
+      <c r="N28" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="38">
         <v>3.1</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="36">
         <v>3.1</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="36">
         <v>2.8</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="31">
         <v>2.8</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="31">
         <v>2</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="31">
         <v>2.1</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="31">
         <v>3.3</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="31">
         <v>3.3</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="31">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="M29" s="31">
+        <v>2.9</v>
+      </c>
+      <c r="N29" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="38">
         <v>4.7</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="36">
         <v>4.7</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="36">
         <v>3.8</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="31">
         <v>2.9</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="31">
         <v>3.5</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="31">
         <v>3.2</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="31">
         <v>2.8</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="31">
         <v>2.4</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="31">
         <v>2.7</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="31">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="M30" s="31">
+        <v>2.7</v>
+      </c>
+      <c r="N30" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="38">
         <v>6.2</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="36">
         <v>5.8</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="36">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="31">
         <v>4.7</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="31">
         <v>4.2</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="31">
         <v>3.6</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="31">
         <v>3.7</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="31">
         <v>3.8</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="31">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="31">
         <v>3.6</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="31">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="M31" s="31">
+        <v>2.9</v>
+      </c>
+      <c r="N31" s="6">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="38">
         <v>5.7</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="36">
         <v>6</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="36">
         <v>6.2</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="31">
         <v>7.5</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="31">
         <v>7.6</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="31">
         <v>7</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="31">
         <v>7.8</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="31">
         <v>6.4</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="31">
         <v>8</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="31">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="31">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="M32" s="31">
+        <v>4.8</v>
+      </c>
+      <c r="N32" s="6">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="38">
         <v>6.1</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="36">
         <v>5.8</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="36">
         <v>4.8</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="31">
         <v>4.3</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="31">
         <v>4.2</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="31">
         <v>4</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="31">
         <v>3.9</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="31">
         <v>3.2</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="31">
         <v>3.3</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="31">
         <v>3.6</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="31">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="M33" s="31">
+        <v>3.8</v>
+      </c>
+      <c r="N33" s="6">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="38">
         <v>5.9</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="36">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="36">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="31">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="31">
         <v>3.6</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="31">
         <v>3.7</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="31">
         <v>4</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="31">
         <v>3.5</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="31">
         <v>5.6</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="31">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="M34" s="31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N34" s="6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="38">
         <v>2.5</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="36">
         <v>3.7</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="36">
         <v>3.4</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="31">
         <v>3.5</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="31">
         <v>3.9</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="31">
         <v>2.7</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="31">
         <v>2.9</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="31">
         <v>3.4</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="31">
         <v>3.3</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="31">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="M35" s="31">
+        <v>2.6</v>
+      </c>
+      <c r="N35" s="6">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="38">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="36">
         <v>2.5</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="36">
         <v>2.6</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="31">
         <v>2.6</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="31">
         <v>1.8</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="31">
         <v>1.7</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="31">
         <v>1.5</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="31">
         <v>1.9</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="31">
         <v>2.7</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="31">
         <v>2.1</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="M36" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N36" s="6">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="38">
         <v>5.4</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="36">
         <v>4</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="36">
         <v>4.3</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="31">
         <v>4</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="31">
         <v>2.1</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="31">
         <v>2.6</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="31">
         <v>2.5</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="31">
         <v>2.5</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="31">
         <v>4.2</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="31">
         <v>2.8</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="31">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="M37" s="31">
+        <v>2.8</v>
+      </c>
+      <c r="N37" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="40">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="24">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="24">
         <v>4.2</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="24">
         <v>3.5</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="24">
         <v>3.3</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="24">
         <v>3.3</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="24">
         <v>3.4</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="24">
         <v>4.5</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="24">
         <v>3.7</v>
       </c>
-      <c r="L38" s="35">
+      <c r="L38" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" s="15" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="M38" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="N38" s="25">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="20"/>
-    </row>
-    <row r="40" spans="1:14" s="16" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="16"/>
+    </row>
+    <row r="40" spans="1:16" s="12" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" s="17" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="38" t="s">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+    </row>
+    <row r="41" spans="1:16" s="13" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="21"/>
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
-    </row>
-    <row r="42" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+    </row>
+    <row r="42" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-    </row>
-    <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K43" s="12"/>
-      <c r="L43" s="26"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>

--- a/Tabulados/td-entidad.xlsx
+++ b/Tabulados/td-entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6373F2-1CDE-4E68-B1C0-630D23709F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEC0BCD-C954-40A1-81C5-1CF1A553751B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,10 +163,10 @@
     <t>IV Trim</t>
   </si>
   <si>
-    <t>IV trimestre 2012 - I trimestre 2023</t>
-  </si>
-  <si>
-    <t>I Trim</t>
+    <t>IV trimestre 2012 - II trimestre 2023</t>
+  </si>
+  <si>
+    <t>II Trim</t>
   </si>
 </sst>
 </file>
@@ -938,6 +938,32 @@
     </xf>
     <xf numFmtId="164" fontId="21" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="21" fillId="39" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="39" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -953,32 +979,6 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="39" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1056,9 +1056,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1096,9 +1096,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1131,26 +1131,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1183,26 +1166,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1379,7 +1345,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1442,7 +1408,7 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="22">
@@ -1486,7 +1452,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="23" t="s">
         <v>39</v>
       </c>
@@ -1528,1418 +1494,1418 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="33">
         <v>6</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="31">
         <v>5.9</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="31">
         <v>5.5</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="26">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="26">
         <v>3.9</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="26">
         <v>3.6</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="26">
         <v>3.2</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="26">
         <v>3.3</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="26">
         <v>5.2</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="26">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="26">
         <v>3.8</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="N6" s="6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="33">
+        <v>5.9</v>
+      </c>
+      <c r="C7" s="31">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D7" s="31">
+        <v>4.7</v>
+      </c>
+      <c r="E7" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="F7" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G7" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="H7" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I7" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J7" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="K7" s="26">
+        <v>2</v>
+      </c>
+      <c r="L7" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="M7" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="N7" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="33">
+        <v>5.6</v>
+      </c>
+      <c r="C8" s="31">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D8" s="31">
+        <v>6</v>
+      </c>
+      <c r="E8" s="26">
+        <v>4.3</v>
+      </c>
+      <c r="F8" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="G8" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H8" s="26">
+        <v>3.9</v>
+      </c>
+      <c r="I8" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J8" s="26">
+        <v>5.4</v>
+      </c>
+      <c r="K8" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="L8" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="M8" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="N8" s="6">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="33">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="31">
+        <v>2.1</v>
+      </c>
+      <c r="D9" s="31">
+        <v>2.6</v>
+      </c>
+      <c r="E9" s="26">
+        <v>3</v>
+      </c>
+      <c r="F9" s="26">
+        <v>3.9</v>
+      </c>
+      <c r="G9" s="26">
+        <v>3.4</v>
+      </c>
+      <c r="H9" s="26">
         <v>3.5</v>
       </c>
-      <c r="N6" s="6">
+      <c r="I9" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="J9" s="26">
+        <v>3.4</v>
+      </c>
+      <c r="K9" s="26">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="38">
-        <v>5.9</v>
-      </c>
-      <c r="C7" s="36">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D7" s="36">
-        <v>4.7</v>
-      </c>
-      <c r="E7" s="31">
-        <v>3.8</v>
-      </c>
-      <c r="F7" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G7" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="H7" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I7" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J7" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="K7" s="31">
+      <c r="L9" s="26">
         <v>2</v>
       </c>
-      <c r="L7" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="M7" s="31">
-        <v>1.9</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="38">
-        <v>5.6</v>
-      </c>
-      <c r="C8" s="36">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D8" s="36">
-        <v>6</v>
-      </c>
-      <c r="E8" s="31">
-        <v>4.3</v>
-      </c>
-      <c r="F8" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="G8" s="31">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H8" s="31">
-        <v>3.9</v>
-      </c>
-      <c r="I8" s="31">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="J8" s="31">
-        <v>5.4</v>
-      </c>
-      <c r="K8" s="31">
-        <v>2.6</v>
-      </c>
-      <c r="L8" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="M8" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="N8" s="6">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="M9" s="26">
         <v>3</v>
-      </c>
-      <c r="B9" s="38">
-        <v>2.1</v>
-      </c>
-      <c r="C9" s="36">
-        <v>2.1</v>
-      </c>
-      <c r="D9" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="E9" s="31">
-        <v>3</v>
-      </c>
-      <c r="F9" s="31">
-        <v>3.9</v>
-      </c>
-      <c r="G9" s="31">
-        <v>3.4</v>
-      </c>
-      <c r="H9" s="31">
-        <v>3.5</v>
-      </c>
-      <c r="I9" s="31">
-        <v>3.2</v>
-      </c>
-      <c r="J9" s="31">
-        <v>3.4</v>
-      </c>
-      <c r="K9" s="31">
-        <v>3</v>
-      </c>
-      <c r="L9" s="31">
-        <v>2</v>
-      </c>
-      <c r="M9" s="31">
-        <v>3.1</v>
       </c>
       <c r="N9" s="6">
         <v>1.8</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="33">
         <v>5.6</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="31">
         <v>5</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="31">
         <v>5.3</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="26">
         <v>4.3</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="26">
         <v>4</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="26">
         <v>3.7</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="26">
         <v>3.6</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="26">
         <v>4.3</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="26">
         <v>6.2</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="26">
         <v>4.8</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="26">
         <v>3.4</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="26">
+        <v>4</v>
+      </c>
+      <c r="N10" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="33">
+        <v>4.8</v>
+      </c>
+      <c r="C11" s="31">
         <v>5</v>
       </c>
-      <c r="N10" s="6">
+      <c r="D11" s="31">
+        <v>5</v>
+      </c>
+      <c r="E11" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="F11" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="G11" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="H11" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="I11" s="26">
+        <v>3</v>
+      </c>
+      <c r="J11" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="K11" s="26">
+        <v>3.1</v>
+      </c>
+      <c r="L11" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="M11" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="N11" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="C12" s="31">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="D12" s="31">
+        <v>2.9</v>
+      </c>
+      <c r="E12" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="F12" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="G12" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="I12" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="J12" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="K12" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="L12" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M12" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="33">
+        <v>5.8</v>
+      </c>
+      <c r="C13" s="31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D13" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="E13" s="26">
+        <v>3.4</v>
+      </c>
+      <c r="F13" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="G13" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="H13" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I13" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="J13" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="K13" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="L13" s="26">
+        <v>2</v>
+      </c>
+      <c r="M13" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="N13" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="33">
+        <v>6.1</v>
+      </c>
+      <c r="C14" s="31">
+        <v>5.4</v>
+      </c>
+      <c r="D14" s="31">
+        <v>6</v>
+      </c>
+      <c r="E14" s="26">
+        <v>5.2</v>
+      </c>
+      <c r="F14" s="26">
+        <v>4.3</v>
+      </c>
+      <c r="G14" s="26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H14" s="26">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I14" s="26">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J14" s="26">
+        <v>6.6</v>
+      </c>
+      <c r="K14" s="26">
+        <v>5.9</v>
+      </c>
+      <c r="L14" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="M14" s="26">
+        <v>5.4</v>
+      </c>
+      <c r="N14" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="C15" s="31">
+        <v>5.6</v>
+      </c>
+      <c r="D15" s="31">
+        <v>5.5</v>
+      </c>
+      <c r="E15" s="26">
         <v>4</v>
       </c>
-      <c r="B11" s="38">
+      <c r="F15" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="G15" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="H15" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I15" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="J15" s="26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K15" s="26">
+        <v>3.4</v>
+      </c>
+      <c r="L15" s="26">
+        <v>3.1</v>
+      </c>
+      <c r="M15" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="N15" s="6">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="33">
+        <v>5.6</v>
+      </c>
+      <c r="C16" s="31">
+        <v>5.2</v>
+      </c>
+      <c r="D16" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="E16" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F16" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G16" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="H16" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="I16" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="J16" s="26">
+        <v>5.3</v>
+      </c>
+      <c r="K16" s="26">
+        <v>3.9</v>
+      </c>
+      <c r="L16" s="26">
+        <v>3.1</v>
+      </c>
+      <c r="M16" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="N16" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="33">
+        <v>2.8</v>
+      </c>
+      <c r="C17" s="31">
+        <v>2.7</v>
+      </c>
+      <c r="D17" s="31">
+        <v>2.1</v>
+      </c>
+      <c r="E17" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="F17" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1.6</v>
+      </c>
+      <c r="H17" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="I17" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="K17" s="26">
+        <v>1.4</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="M17" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="33">
+        <v>5.3</v>
+      </c>
+      <c r="C18" s="31">
+        <v>5</v>
+      </c>
+      <c r="D18" s="31">
+        <v>3.6</v>
+      </c>
+      <c r="E18" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="F18" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="G18" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="H18" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="I18" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="J18" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K18" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="L18" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M18" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="N18" s="6">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="34">
+        <v>5.4</v>
+      </c>
+      <c r="C19" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D19" s="32">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E19" s="27">
+        <v>4.3</v>
+      </c>
+      <c r="F19" s="27">
+        <v>3.3</v>
+      </c>
+      <c r="G19" s="27">
+        <v>2.9</v>
+      </c>
+      <c r="H19" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="I19" s="27">
+        <v>3.1</v>
+      </c>
+      <c r="J19" s="27">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K19" s="27">
+        <v>3.1</v>
+      </c>
+      <c r="L19" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="M19" s="27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="33">
+        <v>5.8</v>
+      </c>
+      <c r="C20" s="31">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D20" s="31">
+        <v>5.3</v>
+      </c>
+      <c r="E20" s="26">
+        <v>5.4</v>
+      </c>
+      <c r="F20" s="26">
         <v>4.8</v>
       </c>
-      <c r="C11" s="36">
-        <v>5</v>
-      </c>
-      <c r="D11" s="36">
-        <v>5</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="G20" s="26">
+        <v>4</v>
+      </c>
+      <c r="H20" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="I20" s="26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J20" s="26">
+        <v>6.4</v>
+      </c>
+      <c r="K20" s="26">
+        <v>4.7</v>
+      </c>
+      <c r="L20" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="M20" s="26">
         <v>4.2</v>
       </c>
-      <c r="F11" s="31">
-        <v>3.5</v>
-      </c>
-      <c r="G11" s="31">
-        <v>3.5</v>
-      </c>
-      <c r="H11" s="31">
+      <c r="N20" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C21" s="31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D21" s="31">
+        <v>4</v>
+      </c>
+      <c r="E21" s="26">
+        <v>3.1</v>
+      </c>
+      <c r="F21" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="G21" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H21" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="I21" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="J21" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K21" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="L21" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="M21" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="N21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="C22" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="D22" s="31">
+        <v>3.3</v>
+      </c>
+      <c r="E22" s="26">
+        <v>3.1</v>
+      </c>
+      <c r="F22" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G22" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="H22" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="I22" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="J22" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="K22" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="L22" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="M22" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="33">
+        <v>6.1</v>
+      </c>
+      <c r="C23" s="31">
+        <v>5.2</v>
+      </c>
+      <c r="D23" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="E23" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F23" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="G23" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="H23" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="I23" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="J23" s="26">
+        <v>4</v>
+      </c>
+      <c r="K23" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="L23" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="M23" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="N23" s="6">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="33">
+        <v>5.4</v>
+      </c>
+      <c r="C24" s="31">
+        <v>4.7</v>
+      </c>
+      <c r="D24" s="31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E24" s="26">
+        <v>4</v>
+      </c>
+      <c r="F24" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G24" s="26">
+        <v>3.4</v>
+      </c>
+      <c r="H24" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="I24" s="26">
         <v>3.7</v>
       </c>
-      <c r="I11" s="31">
+      <c r="J24" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="K24" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="L24" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="M24" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="N24" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="33">
+        <v>2.6</v>
+      </c>
+      <c r="C25" s="31">
+        <v>2.9</v>
+      </c>
+      <c r="D25" s="31">
+        <v>2.6</v>
+      </c>
+      <c r="E25" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="F25" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="G25" s="26">
+        <v>1.8</v>
+      </c>
+      <c r="H25" s="26">
+        <v>2</v>
+      </c>
+      <c r="I25" s="26">
+        <v>2</v>
+      </c>
+      <c r="J25" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="K25" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="L25" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="M25" s="26">
+        <v>1.4</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="C26" s="31">
+        <v>3.8</v>
+      </c>
+      <c r="D26" s="31">
+        <v>3.4</v>
+      </c>
+      <c r="E26" s="26">
         <v>3</v>
       </c>
-      <c r="J11" s="31">
+      <c r="F26" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="G26" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="H26" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="I26" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="J26" s="26">
+        <v>6</v>
+      </c>
+      <c r="K26" s="26">
         <v>3.8</v>
       </c>
-      <c r="K11" s="31">
-        <v>3.1</v>
-      </c>
-      <c r="L11" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="M11" s="31">
+      <c r="L26" s="26">
         <v>2.8</v>
       </c>
-      <c r="N11" s="6">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="38">
-        <v>2.5</v>
-      </c>
-      <c r="C12" s="36">
-        <v>3.6</v>
-      </c>
-      <c r="D12" s="36">
-        <v>2.9</v>
-      </c>
-      <c r="E12" s="31">
-        <v>3.2</v>
-      </c>
-      <c r="F12" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="G12" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="H12" s="31">
-        <v>3.5</v>
-      </c>
-      <c r="I12" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="J12" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="K12" s="31">
-        <v>3.3</v>
-      </c>
-      <c r="L12" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M12" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="N12" s="6">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="38">
-        <v>5.8</v>
-      </c>
-      <c r="C13" s="36">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D13" s="36">
-        <v>4.3</v>
-      </c>
-      <c r="E13" s="31">
-        <v>3.4</v>
-      </c>
-      <c r="F13" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="G13" s="31">
-        <v>2.6</v>
-      </c>
-      <c r="H13" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I13" s="31">
-        <v>2.6</v>
-      </c>
-      <c r="J13" s="31">
-        <v>3.7</v>
-      </c>
-      <c r="K13" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="L13" s="31">
-        <v>2</v>
-      </c>
-      <c r="M13" s="31">
-        <v>2.6</v>
-      </c>
-      <c r="N13" s="6">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="38">
-        <v>6.1</v>
-      </c>
-      <c r="C14" s="36">
-        <v>5.4</v>
-      </c>
-      <c r="D14" s="36">
-        <v>6</v>
-      </c>
-      <c r="E14" s="31">
-        <v>5.2</v>
-      </c>
-      <c r="F14" s="31">
-        <v>4.3</v>
-      </c>
-      <c r="G14" s="31">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H14" s="31">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I14" s="31">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J14" s="31">
-        <v>6.6</v>
-      </c>
-      <c r="K14" s="31">
-        <v>5.9</v>
-      </c>
-      <c r="L14" s="31">
-        <v>4.5</v>
-      </c>
-      <c r="M14" s="31">
-        <v>5.8</v>
-      </c>
-      <c r="N14" s="6">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="38">
-        <v>5.5</v>
-      </c>
-      <c r="C15" s="36">
-        <v>5.6</v>
-      </c>
-      <c r="D15" s="36">
-        <v>5.5</v>
-      </c>
-      <c r="E15" s="31">
-        <v>4</v>
-      </c>
-      <c r="F15" s="31">
-        <v>3.5</v>
-      </c>
-      <c r="G15" s="31">
-        <v>3.3</v>
-      </c>
-      <c r="H15" s="31">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I15" s="31">
-        <v>3.3</v>
-      </c>
-      <c r="J15" s="31">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K15" s="31">
-        <v>3.4</v>
-      </c>
-      <c r="L15" s="31">
-        <v>3.1</v>
-      </c>
-      <c r="M15" s="31">
-        <v>3.6</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="M26" s="26">
         <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="38">
-        <v>5.6</v>
-      </c>
-      <c r="C16" s="36">
-        <v>5.2</v>
-      </c>
-      <c r="D16" s="36">
-        <v>4.2</v>
-      </c>
-      <c r="E16" s="31">
-        <v>4.5</v>
-      </c>
-      <c r="F16" s="31">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G16" s="31">
-        <v>3.8</v>
-      </c>
-      <c r="H16" s="31">
-        <v>3.8</v>
-      </c>
-      <c r="I16" s="31">
-        <v>3.3</v>
-      </c>
-      <c r="J16" s="31">
-        <v>5.3</v>
-      </c>
-      <c r="K16" s="31">
-        <v>3.9</v>
-      </c>
-      <c r="L16" s="31">
-        <v>3.1</v>
-      </c>
-      <c r="M16" s="31">
-        <v>3.6</v>
-      </c>
-      <c r="N16" s="6">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="38">
-        <v>2.8</v>
-      </c>
-      <c r="C17" s="36">
-        <v>2.7</v>
-      </c>
-      <c r="D17" s="36">
-        <v>2.1</v>
-      </c>
-      <c r="E17" s="31">
-        <v>2.1</v>
-      </c>
-      <c r="F17" s="31">
-        <v>1.7</v>
-      </c>
-      <c r="G17" s="31">
-        <v>1.6</v>
-      </c>
-      <c r="H17" s="31">
-        <v>1.2</v>
-      </c>
-      <c r="I17" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="J17" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="K17" s="31">
-        <v>1.4</v>
-      </c>
-      <c r="L17" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="M17" s="31">
-        <v>1.6</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="38">
-        <v>5.3</v>
-      </c>
-      <c r="C18" s="36">
-        <v>5</v>
-      </c>
-      <c r="D18" s="36">
-        <v>3.6</v>
-      </c>
-      <c r="E18" s="31">
-        <v>3.2</v>
-      </c>
-      <c r="F18" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="G18" s="31">
-        <v>2.6</v>
-      </c>
-      <c r="H18" s="31">
-        <v>2.1</v>
-      </c>
-      <c r="I18" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="J18" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K18" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="L18" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M18" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="39">
-        <v>5.4</v>
-      </c>
-      <c r="C19" s="37">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D19" s="37">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E19" s="32">
-        <v>4.3</v>
-      </c>
-      <c r="F19" s="32">
-        <v>3.3</v>
-      </c>
-      <c r="G19" s="32">
-        <v>2.9</v>
-      </c>
-      <c r="H19" s="32">
-        <v>2.5</v>
-      </c>
-      <c r="I19" s="32">
-        <v>3.1</v>
-      </c>
-      <c r="J19" s="32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K19" s="32">
-        <v>3.1</v>
-      </c>
-      <c r="L19" s="32">
-        <v>2.4</v>
-      </c>
-      <c r="M19" s="32">
-        <v>2.4</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="38">
-        <v>5.8</v>
-      </c>
-      <c r="C20" s="36">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D20" s="36">
-        <v>5.3</v>
-      </c>
-      <c r="E20" s="31">
-        <v>5.4</v>
-      </c>
-      <c r="F20" s="31">
-        <v>4.8</v>
-      </c>
-      <c r="G20" s="31">
-        <v>4</v>
-      </c>
-      <c r="H20" s="31">
-        <v>3.8</v>
-      </c>
-      <c r="I20" s="31">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J20" s="31">
-        <v>6.4</v>
-      </c>
-      <c r="K20" s="31">
-        <v>4.7</v>
-      </c>
-      <c r="L20" s="31">
-        <v>4.5</v>
-      </c>
-      <c r="M20" s="31">
-        <v>5.3</v>
-      </c>
-      <c r="N20" s="6">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="38">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C21" s="36">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D21" s="36">
-        <v>4</v>
-      </c>
-      <c r="E21" s="31">
-        <v>3.1</v>
-      </c>
-      <c r="F21" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="G21" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H21" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="I21" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="J21" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K21" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="L21" s="31">
-        <v>1.7</v>
-      </c>
-      <c r="M21" s="31">
-        <v>1.6</v>
-      </c>
-      <c r="N21" s="6">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="38">
-        <v>4.2</v>
-      </c>
-      <c r="C22" s="36">
-        <v>4.3</v>
-      </c>
-      <c r="D22" s="36">
-        <v>3.3</v>
-      </c>
-      <c r="E22" s="31">
-        <v>3.1</v>
-      </c>
-      <c r="F22" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G22" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="H22" s="31">
-        <v>2.1</v>
-      </c>
-      <c r="I22" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="J22" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="K22" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="L22" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="M22" s="31">
-        <v>1.9</v>
-      </c>
-      <c r="N22" s="6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="38">
-        <v>6.1</v>
-      </c>
-      <c r="C23" s="36">
-        <v>5.2</v>
-      </c>
-      <c r="D23" s="36">
-        <v>4.5</v>
-      </c>
-      <c r="E23" s="31">
-        <v>4.5</v>
-      </c>
-      <c r="F23" s="31">
-        <v>3.6</v>
-      </c>
-      <c r="G23" s="31">
-        <v>3.6</v>
-      </c>
-      <c r="H23" s="31">
-        <v>3.6</v>
-      </c>
-      <c r="I23" s="31">
-        <v>3.6</v>
-      </c>
-      <c r="J23" s="31">
-        <v>4</v>
-      </c>
-      <c r="K23" s="31">
-        <v>2.6</v>
-      </c>
-      <c r="L23" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="M23" s="31">
-        <v>3</v>
-      </c>
-      <c r="N23" s="6">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="38">
-        <v>5.4</v>
-      </c>
-      <c r="C24" s="36">
-        <v>4.7</v>
-      </c>
-      <c r="D24" s="36">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E24" s="31">
-        <v>4</v>
-      </c>
-      <c r="F24" s="31">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G24" s="31">
-        <v>3.4</v>
-      </c>
-      <c r="H24" s="31">
-        <v>3.6</v>
-      </c>
-      <c r="I24" s="31">
-        <v>3.7</v>
-      </c>
-      <c r="J24" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="K24" s="31">
-        <v>3.7</v>
-      </c>
-      <c r="L24" s="31">
-        <v>3.6</v>
-      </c>
-      <c r="M24" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="N24" s="6">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="38">
-        <v>2.6</v>
-      </c>
-      <c r="C25" s="36">
-        <v>2.9</v>
-      </c>
-      <c r="D25" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="E25" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="F25" s="31">
-        <v>1.7</v>
-      </c>
-      <c r="G25" s="31">
-        <v>1.8</v>
-      </c>
-      <c r="H25" s="31">
-        <v>2</v>
-      </c>
-      <c r="I25" s="31">
-        <v>2</v>
-      </c>
-      <c r="J25" s="31">
-        <v>1.7</v>
-      </c>
-      <c r="K25" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="L25" s="31">
-        <v>1.3</v>
-      </c>
-      <c r="M25" s="31">
-        <v>1.6</v>
-      </c>
-      <c r="N25" s="6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="38">
-        <v>4.2</v>
-      </c>
-      <c r="C26" s="36">
-        <v>3.8</v>
-      </c>
-      <c r="D26" s="36">
-        <v>3.4</v>
-      </c>
-      <c r="E26" s="31">
-        <v>3</v>
-      </c>
-      <c r="F26" s="31">
-        <v>2.8</v>
-      </c>
-      <c r="G26" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="H26" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="I26" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="J26" s="31">
-        <v>6</v>
-      </c>
-      <c r="K26" s="31">
-        <v>3.8</v>
-      </c>
-      <c r="L26" s="31">
-        <v>2.8</v>
-      </c>
-      <c r="M26" s="31">
-        <v>3.1</v>
       </c>
       <c r="N26" s="6">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="33">
         <v>5.8</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="31">
         <v>6.3</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="31">
         <v>5.5</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="26">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="26">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="26">
         <v>4.5</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="26">
         <v>3.7</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="26">
         <v>4.7</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="26">
         <v>6.9</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="26">
         <v>5.7</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="26">
         <v>3.6</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="26">
+        <v>4.3</v>
+      </c>
+      <c r="N27" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="33">
+        <v>4.3</v>
+      </c>
+      <c r="C28" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="D28" s="31">
+        <v>4.7</v>
+      </c>
+      <c r="E28" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="F28" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="G28" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="H28" s="26">
+        <v>3.1</v>
+      </c>
+      <c r="I28" s="26">
+        <v>3.1</v>
+      </c>
+      <c r="J28" s="26">
+        <v>8.6</v>
+      </c>
+      <c r="K28" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L28" s="26">
+        <v>2</v>
+      </c>
+      <c r="M28" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="N28" s="6">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="33">
+        <v>3.1</v>
+      </c>
+      <c r="C29" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="D29" s="31">
+        <v>2.8</v>
+      </c>
+      <c r="E29" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="F29" s="26">
+        <v>2</v>
+      </c>
+      <c r="G29" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H29" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="I29" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J29" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="K29" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="L29" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="M29" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="N29" s="6">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="33">
+        <v>4.7</v>
+      </c>
+      <c r="C30" s="31">
+        <v>4.7</v>
+      </c>
+      <c r="D30" s="31">
+        <v>3.8</v>
+      </c>
+      <c r="E30" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F30" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="G30" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="H30" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="I30" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="J30" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="K30" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="L30" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="M30" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="N30" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="33">
+        <v>6.2</v>
+      </c>
+      <c r="C31" s="31">
+        <v>5.8</v>
+      </c>
+      <c r="D31" s="31">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E31" s="26">
+        <v>4.7</v>
+      </c>
+      <c r="F31" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="G31" s="26">
         <v>3.6</v>
       </c>
-      <c r="N27" s="6">
+      <c r="H31" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="I31" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="J31" s="26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K31" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="L31" s="26">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="38">
+      <c r="M31" s="26">
+        <v>3.1</v>
+      </c>
+      <c r="N31" s="6">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="33">
+        <v>5.7</v>
+      </c>
+      <c r="C32" s="31">
+        <v>6</v>
+      </c>
+      <c r="D32" s="31">
+        <v>6.2</v>
+      </c>
+      <c r="E32" s="26">
+        <v>7.5</v>
+      </c>
+      <c r="F32" s="26">
+        <v>7.6</v>
+      </c>
+      <c r="G32" s="26">
+        <v>7</v>
+      </c>
+      <c r="H32" s="26">
+        <v>7.8</v>
+      </c>
+      <c r="I32" s="26">
+        <v>6.4</v>
+      </c>
+      <c r="J32" s="26">
+        <v>8</v>
+      </c>
+      <c r="K32" s="26">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L32" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="M32" s="26">
+        <v>5.7</v>
+      </c>
+      <c r="N32" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="33">
+        <v>6.1</v>
+      </c>
+      <c r="C33" s="31">
+        <v>5.8</v>
+      </c>
+      <c r="D33" s="31">
+        <v>4.8</v>
+      </c>
+      <c r="E33" s="26">
         <v>4.3</v>
       </c>
-      <c r="C28" s="36">
+      <c r="F33" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="G33" s="26">
+        <v>4</v>
+      </c>
+      <c r="H33" s="26">
+        <v>3.9</v>
+      </c>
+      <c r="I33" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="J33" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="K33" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="L33" s="26">
+        <v>3.1</v>
+      </c>
+      <c r="M33" s="26">
+        <v>3.4</v>
+      </c>
+      <c r="N33" s="6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="33">
+        <v>5.9</v>
+      </c>
+      <c r="C34" s="31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D34" s="31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E34" s="26">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F34" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="G34" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="H34" s="26">
+        <v>4</v>
+      </c>
+      <c r="I34" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="J34" s="26">
+        <v>5.6</v>
+      </c>
+      <c r="K34" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L34" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="M34" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="N34" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="C35" s="31">
+        <v>3.7</v>
+      </c>
+      <c r="D35" s="31">
+        <v>3.4</v>
+      </c>
+      <c r="E35" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F35" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="G35" s="26">
+        <v>3.9</v>
+      </c>
+      <c r="H35" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="I35" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="J35" s="26">
+        <v>3.4</v>
+      </c>
+      <c r="K35" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="L35" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="M35" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="N35" s="6">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C36" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="D36" s="31">
+        <v>2.6</v>
+      </c>
+      <c r="E36" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="F36" s="26">
+        <v>1.8</v>
+      </c>
+      <c r="G36" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="H36" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="I36" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="J36" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="K36" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="L36" s="26">
+        <v>2</v>
+      </c>
+      <c r="M36" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="N36" s="6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="33">
+        <v>5.4</v>
+      </c>
+      <c r="C37" s="31">
+        <v>4</v>
+      </c>
+      <c r="D37" s="31">
         <v>4.3</v>
       </c>
-      <c r="D28" s="36">
-        <v>4.7</v>
-      </c>
-      <c r="E28" s="31">
-        <v>3.7</v>
-      </c>
-      <c r="F28" s="31">
-        <v>3.8</v>
-      </c>
-      <c r="G28" s="31">
-        <v>3.2</v>
-      </c>
-      <c r="H28" s="31">
-        <v>3.1</v>
-      </c>
-      <c r="I28" s="31">
-        <v>3.1</v>
-      </c>
-      <c r="J28" s="31">
-        <v>8.6</v>
-      </c>
-      <c r="K28" s="31">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L28" s="31">
-        <v>2</v>
-      </c>
-      <c r="M28" s="31">
-        <v>3</v>
-      </c>
-      <c r="N28" s="6">
+      <c r="E37" s="26">
+        <v>4</v>
+      </c>
+      <c r="F37" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="G37" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="H37" s="26">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="38">
-        <v>3.1</v>
-      </c>
-      <c r="C29" s="36">
-        <v>3.1</v>
-      </c>
-      <c r="D29" s="36">
+      <c r="I37" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="J37" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="K37" s="26">
         <v>2.8</v>
       </c>
-      <c r="E29" s="31">
-        <v>2.8</v>
-      </c>
-      <c r="F29" s="31">
-        <v>2</v>
-      </c>
-      <c r="G29" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H29" s="31">
-        <v>2.1</v>
-      </c>
-      <c r="I29" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J29" s="31">
+      <c r="L37" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="M37" s="26">
         <v>3.3</v>
       </c>
-      <c r="K29" s="31">
-        <v>3.3</v>
-      </c>
-      <c r="L29" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="M29" s="31">
+      <c r="N37" s="6">
         <v>2.9</v>
       </c>
-      <c r="N29" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="38">
-        <v>4.7</v>
-      </c>
-      <c r="C30" s="36">
-        <v>4.7</v>
-      </c>
-      <c r="D30" s="36">
-        <v>3.8</v>
-      </c>
-      <c r="E30" s="31">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F30" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="G30" s="31">
-        <v>3.5</v>
-      </c>
-      <c r="H30" s="31">
-        <v>3.2</v>
-      </c>
-      <c r="I30" s="31">
-        <v>2.8</v>
-      </c>
-      <c r="J30" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="K30" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="L30" s="31">
-        <v>2.8</v>
-      </c>
-      <c r="M30" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="N30" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="38">
-        <v>6.2</v>
-      </c>
-      <c r="C31" s="36">
-        <v>5.8</v>
-      </c>
-      <c r="D31" s="36">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E31" s="31">
-        <v>4.7</v>
-      </c>
-      <c r="F31" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="G31" s="31">
-        <v>3.6</v>
-      </c>
-      <c r="H31" s="31">
-        <v>3.7</v>
-      </c>
-      <c r="I31" s="31">
-        <v>3.8</v>
-      </c>
-      <c r="J31" s="31">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K31" s="31">
-        <v>3.6</v>
-      </c>
-      <c r="L31" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="M31" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="N31" s="6">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="38">
-        <v>5.7</v>
-      </c>
-      <c r="C32" s="36">
-        <v>6</v>
-      </c>
-      <c r="D32" s="36">
-        <v>6.2</v>
-      </c>
-      <c r="E32" s="31">
-        <v>7.5</v>
-      </c>
-      <c r="F32" s="31">
-        <v>7.6</v>
-      </c>
-      <c r="G32" s="31">
-        <v>7</v>
-      </c>
-      <c r="H32" s="31">
-        <v>7.8</v>
-      </c>
-      <c r="I32" s="31">
-        <v>6.4</v>
-      </c>
-      <c r="J32" s="31">
-        <v>8</v>
-      </c>
-      <c r="K32" s="31">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="L32" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="M32" s="31">
-        <v>4.8</v>
-      </c>
-      <c r="N32" s="6">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="38">
-        <v>6.1</v>
-      </c>
-      <c r="C33" s="36">
-        <v>5.8</v>
-      </c>
-      <c r="D33" s="36">
-        <v>4.8</v>
-      </c>
-      <c r="E33" s="31">
-        <v>4.3</v>
-      </c>
-      <c r="F33" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="G33" s="31">
-        <v>4</v>
-      </c>
-      <c r="H33" s="31">
-        <v>3.9</v>
-      </c>
-      <c r="I33" s="31">
-        <v>3.2</v>
-      </c>
-      <c r="J33" s="31">
-        <v>3.3</v>
-      </c>
-      <c r="K33" s="31">
-        <v>3.6</v>
-      </c>
-      <c r="L33" s="31">
-        <v>3.1</v>
-      </c>
-      <c r="M33" s="31">
-        <v>3.8</v>
-      </c>
-      <c r="N33" s="6">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="38">
-        <v>5.9</v>
-      </c>
-      <c r="C34" s="36">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D34" s="36">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E34" s="31">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F34" s="31">
-        <v>3.6</v>
-      </c>
-      <c r="G34" s="31">
-        <v>3.7</v>
-      </c>
-      <c r="H34" s="31">
-        <v>4</v>
-      </c>
-      <c r="I34" s="31">
-        <v>3.5</v>
-      </c>
-      <c r="J34" s="31">
-        <v>5.6</v>
-      </c>
-      <c r="K34" s="31">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L34" s="31">
-        <v>3.3</v>
-      </c>
-      <c r="M34" s="31">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="N34" s="6">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="38">
-        <v>2.5</v>
-      </c>
-      <c r="C35" s="36">
-        <v>3.7</v>
-      </c>
-      <c r="D35" s="36">
-        <v>3.4</v>
-      </c>
-      <c r="E35" s="31">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F35" s="31">
-        <v>3.5</v>
-      </c>
-      <c r="G35" s="31">
-        <v>3.9</v>
-      </c>
-      <c r="H35" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="I35" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="J35" s="31">
-        <v>3.4</v>
-      </c>
-      <c r="K35" s="31">
-        <v>3.3</v>
-      </c>
-      <c r="L35" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="M35" s="31">
-        <v>2.6</v>
-      </c>
-      <c r="N35" s="6">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="38">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C36" s="36">
-        <v>2.5</v>
-      </c>
-      <c r="D36" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="E36" s="31">
-        <v>2.6</v>
-      </c>
-      <c r="F36" s="31">
-        <v>1.8</v>
-      </c>
-      <c r="G36" s="31">
-        <v>1.7</v>
-      </c>
-      <c r="H36" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="I36" s="31">
-        <v>1.9</v>
-      </c>
-      <c r="J36" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="K36" s="31">
-        <v>2.1</v>
-      </c>
-      <c r="L36" s="31">
-        <v>2</v>
-      </c>
-      <c r="M36" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N36" s="6">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="38">
-        <v>5.4</v>
-      </c>
-      <c r="C37" s="36">
-        <v>4</v>
-      </c>
-      <c r="D37" s="36">
-        <v>4.3</v>
-      </c>
-      <c r="E37" s="31">
-        <v>4</v>
-      </c>
-      <c r="F37" s="31">
-        <v>2.1</v>
-      </c>
-      <c r="G37" s="31">
-        <v>2.6</v>
-      </c>
-      <c r="H37" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="I37" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="J37" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="K37" s="31">
-        <v>2.8</v>
-      </c>
-      <c r="L37" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="M37" s="31">
-        <v>2.8</v>
-      </c>
-      <c r="N37" s="6">
-        <v>3.4</v>
-      </c>
     </row>
     <row r="38" spans="1:16" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="40">
+      <c r="B38" s="35">
         <v>4.9000000000000004</v>
       </c>
       <c r="C38" s="24">
@@ -2973,10 +2939,10 @@
         <v>3</v>
       </c>
       <c r="M38" s="24">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N38" s="25">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,19 +2966,19 @@
       <c r="P39" s="16"/>
     </row>
     <row r="40" spans="1:16" s="12" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
       <c r="N40" s="20"/>
@@ -3020,19 +2986,19 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" s="13" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
@@ -3040,18 +3006,18 @@
       <c r="P41" s="17"/>
     </row>
     <row r="42" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K43" s="8"/>

--- a/Tabulados/td-entidad.xlsx
+++ b/Tabulados/td-entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEC0BCD-C954-40A1-81C5-1CF1A553751B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE237A8D-353E-4082-87A5-832BF89686B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,10 +163,10 @@
     <t>IV Trim</t>
   </si>
   <si>
-    <t>IV trimestre 2012 - II trimestre 2023</t>
-  </si>
-  <si>
-    <t>II Trim</t>
+    <t>III Trim</t>
+  </si>
+  <si>
+    <t>IV trimestre 2012 - III trimestre 2023</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1345,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1487,10 +1487,10 @@
         <v>39</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1531,7 +1531,7 @@
         <v>3.8</v>
       </c>
       <c r="M6" s="26">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N6" s="6">
         <v>3.2</v>
@@ -1575,10 +1575,10 @@
         <v>2.7</v>
       </c>
       <c r="M7" s="26">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N7" s="6">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1619,10 +1619,10 @@
         <v>2.9</v>
       </c>
       <c r="M8" s="26">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N8" s="6">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1663,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="26">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N9" s="6">
         <v>1.8</v>
@@ -1707,10 +1707,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" s="26">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N10" s="6">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1754,7 +1754,7 @@
         <v>2.6</v>
       </c>
       <c r="N11" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1795,10 +1795,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M12" s="26">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N12" s="6">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1842,7 +1842,7 @@
         <v>2.5</v>
       </c>
       <c r="N13" s="6">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1883,10 +1883,10 @@
         <v>4.5</v>
       </c>
       <c r="M14" s="26">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="N14" s="6">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1930,7 +1930,7 @@
         <v>3.3</v>
       </c>
       <c r="N15" s="6">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1971,10 +1971,10 @@
         <v>3.1</v>
       </c>
       <c r="M16" s="26">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N16" s="6">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2015,10 +2015,10 @@
         <v>0.8</v>
       </c>
       <c r="M17" s="26">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="N17" s="6">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2059,10 +2059,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M18" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.6</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2.7</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2103,10 +2103,10 @@
         <v>2.4</v>
       </c>
       <c r="M19" s="27">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="N19" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2147,10 +2147,10 @@
         <v>4.5</v>
       </c>
       <c r="M20" s="26">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="N20" s="6">
-        <v>3.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2191,7 +2191,7 @@
         <v>1.7</v>
       </c>
       <c r="M21" s="26">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="N21" s="6">
         <v>2</v>
@@ -2235,10 +2235,10 @@
         <v>2.7</v>
       </c>
       <c r="M22" s="26">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N22" s="6">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2279,10 +2279,10 @@
         <v>2.4</v>
       </c>
       <c r="M23" s="26">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N23" s="6">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2323,10 +2323,10 @@
         <v>3.6</v>
       </c>
       <c r="M24" s="26">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N24" s="6">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2370,7 +2370,7 @@
         <v>1.4</v>
       </c>
       <c r="N25" s="6">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2411,10 +2411,10 @@
         <v>2.8</v>
       </c>
       <c r="M26" s="26">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N26" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2455,10 +2455,10 @@
         <v>3.6</v>
       </c>
       <c r="M27" s="26">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="N27" s="6">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2502,7 +2502,7 @@
         <v>2.9</v>
       </c>
       <c r="N28" s="6">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2543,10 +2543,10 @@
         <v>2.7</v>
       </c>
       <c r="M29" s="26">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N29" s="6">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2587,10 +2587,10 @@
         <v>2.8</v>
       </c>
       <c r="M30" s="26">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N30" s="6">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2631,10 +2631,10 @@
         <v>2.5</v>
       </c>
       <c r="M31" s="26">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="N31" s="6">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2675,10 +2675,10 @@
         <v>4.2</v>
       </c>
       <c r="M32" s="26">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="N32" s="6">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2719,10 +2719,10 @@
         <v>3.1</v>
       </c>
       <c r="M33" s="26">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="N33" s="6">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2766,7 +2766,7 @@
         <v>3.8</v>
       </c>
       <c r="N34" s="6">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2807,10 +2807,10 @@
         <v>2.4</v>
       </c>
       <c r="M35" s="26">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N35" s="6">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2851,10 +2851,10 @@
         <v>2</v>
       </c>
       <c r="M36" s="26">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="N36" s="6">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2895,10 +2895,10 @@
         <v>2.4</v>
       </c>
       <c r="M37" s="26">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="N37" s="6">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2939,10 +2939,10 @@
         <v>3</v>
       </c>
       <c r="M38" s="24">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N38" s="25">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
